--- a/anonymisierte Mitgliedsliste/TSV-DD-anonymisierte-Mitgliedsliste-2025-11-04.xlsx
+++ b/anonymisierte Mitgliedsliste/TSV-DD-anonymisierte-Mitgliedsliste-2025-11-04.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/StephanieOtt_1/Desktop/Tierschutzverein Dresden e.V. Datenverwaltung/anonymisierte Mitgliedsliste/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36DD052C-878A-DA41-9628-248A83CF5257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B765B4D3-C7F2-E948-A6AB-F27EA0C8536D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20600" yWindow="620" windowWidth="16440" windowHeight="21780" xr2:uid="{CDF540AD-7EAB-404A-860D-442BCC6A36DD}"/>
+    <workbookView xWindow="6280" yWindow="620" windowWidth="29560" windowHeight="21780" xr2:uid="{CDF540AD-7EAB-404A-860D-442BCC6A36DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle" sheetId="10" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8345" uniqueCount="1004">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8348" uniqueCount="1026">
   <si>
     <t>Titel</t>
   </si>
@@ -3056,7 +3056,73 @@
     <t>1867-03-26</t>
   </si>
   <si>
-    <t>keineZahlung</t>
+    <t>Prof.-Dr.</t>
+  </si>
+  <si>
+    <t>Adam-Müller</t>
+  </si>
+  <si>
+    <t>Beier-Meier</t>
+  </si>
+  <si>
+    <t>Brand Simon</t>
+  </si>
+  <si>
+    <t>Lara-Maia</t>
+  </si>
+  <si>
+    <t>Böhm-Klein</t>
+  </si>
+  <si>
+    <t>Dietz Mai</t>
+  </si>
+  <si>
+    <t>Nico Mark</t>
+  </si>
+  <si>
+    <t>Luis Roy</t>
+  </si>
+  <si>
+    <t>Amelie-Sophie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mia </t>
+  </si>
+  <si>
+    <t>Eva Maya</t>
+  </si>
+  <si>
+    <t>ABBUCHUNG</t>
+  </si>
+  <si>
+    <t>DAUERAUFTRAG</t>
+  </si>
+  <si>
+    <t>PAYPAL</t>
+  </si>
+  <si>
+    <t>UEBERWEISUNG</t>
+  </si>
+  <si>
+    <t>AKTIV</t>
+  </si>
+  <si>
+    <t>GEKUENDIGT</t>
+  </si>
+  <si>
+    <t>GESTRICHEN</t>
+  </si>
+  <si>
+    <t>KEINEZAHLUNG</t>
+  </si>
+  <si>
+    <t>bezahlt noch, aber  Kontakt Dauerauftragten</t>
+  </si>
+  <si>
+    <t>bisher  Kontakt Dauerauftragten hinterlegt</t>
+  </si>
+  <si>
+    <t>09301</t>
   </si>
 </sst>
 </file>
@@ -3163,7 +3229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3232,6 +3298,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3571,7 +3640,7 @@
   <dimension ref="A1:R219"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3581,8 +3650,10 @@
     <col min="3" max="4" width="17.6640625" style="11" customWidth="1"/>
     <col min="5" max="5" width="21.33203125" style="19" customWidth="1"/>
     <col min="6" max="6" width="11.1640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13" style="11" customWidth="1"/>
-    <col min="9" max="11" width="17.5" style="11" customWidth="1"/>
+    <col min="7" max="7" width="26.6640625" style="11" customWidth="1"/>
+    <col min="8" max="8" width="13" style="11" customWidth="1"/>
+    <col min="9" max="9" width="17.5" style="13" customWidth="1"/>
+    <col min="10" max="11" width="17.5" style="11" customWidth="1"/>
     <col min="12" max="12" width="10.83203125" style="11"/>
     <col min="13" max="14" width="16.33203125" style="13" customWidth="1"/>
     <col min="15" max="15" width="40.6640625" style="11" customWidth="1"/>
@@ -3668,11 +3739,11 @@
         <v>60</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H2" s="1"/>
-      <c r="I2" s="9">
-        <v>99301</v>
+      <c r="I2" s="12" t="s">
+        <v>1025</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>279</v>
@@ -3694,7 +3765,7 @@
         <v>35963</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R2" s="2"/>
     </row>
@@ -3702,9 +3773,11 @@
       <c r="A3" s="8">
         <v>327</v>
       </c>
-      <c r="B3" s="9"/>
+      <c r="B3" s="9" t="s">
+        <v>1003</v>
+      </c>
       <c r="C3" s="9" t="s">
-        <v>27</v>
+        <v>1004</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>28</v>
@@ -3716,10 +3789,10 @@
         <v>60</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H3" s="1"/>
-      <c r="I3" s="9"/>
+      <c r="I3" s="12"/>
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
       <c r="L3" s="9"/>
@@ -3734,7 +3807,7 @@
         <v>41723</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R3" s="2" t="s">
         <v>616</v>
@@ -3759,7 +3832,7 @@
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="9">
+      <c r="I4" s="12">
         <v>89866</v>
       </c>
       <c r="J4" s="9" t="s">
@@ -3780,7 +3853,7 @@
         <v>45104</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R4" s="2"/>
     </row>
@@ -3802,10 +3875,10 @@
         <v>60</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H5" s="1"/>
-      <c r="I5" s="9">
+      <c r="I5" s="12">
         <v>62433</v>
       </c>
       <c r="J5" s="9" t="s">
@@ -3828,7 +3901,7 @@
         <v>39073</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R5" s="2"/>
     </row>
@@ -3851,7 +3924,7 @@
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="9"/>
+      <c r="I6" s="12"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
@@ -3866,7 +3939,7 @@
         <v>33883</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R6" s="2"/>
     </row>
@@ -3888,10 +3961,10 @@
         <v>120</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H7" s="1"/>
-      <c r="I7" s="9">
+      <c r="I7" s="12">
         <v>67582</v>
       </c>
       <c r="J7" s="9" t="s">
@@ -3912,7 +3985,7 @@
         <v>40315</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R7" s="2"/>
     </row>
@@ -3934,10 +4007,10 @@
         <v>200</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>20</v>
+        <v>1018</v>
       </c>
       <c r="H8" s="1"/>
-      <c r="I8" s="9">
+      <c r="I8" s="12">
         <v>19755</v>
       </c>
       <c r="J8" s="9" t="s">
@@ -3960,7 +4033,7 @@
         <v>33678</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>795</v>
+        <v>1020</v>
       </c>
       <c r="R8" s="1" t="s">
         <v>7</v>
@@ -3984,10 +4057,10 @@
         <v>100</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H9" s="1"/>
-      <c r="I9" s="9"/>
+      <c r="I9" s="12"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
@@ -4002,7 +4075,7 @@
         <v>36530</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R9" s="2"/>
     </row>
@@ -4024,10 +4097,10 @@
         <v>60</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H10" s="1"/>
-      <c r="I10" s="9">
+      <c r="I10" s="12">
         <v>14976</v>
       </c>
       <c r="J10" s="9" t="s">
@@ -4050,7 +4123,7 @@
         <v>42745</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R10" s="2"/>
     </row>
@@ -4072,10 +4145,10 @@
         <v>72</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H11" s="1"/>
-      <c r="I11" s="9"/>
+      <c r="I11" s="12"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
@@ -4090,7 +4163,7 @@
         <v>37918</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R11" s="2"/>
     </row>
@@ -4113,7 +4186,7 @@
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="9">
+      <c r="I12" s="12">
         <v>43657</v>
       </c>
       <c r="J12" s="9" t="s">
@@ -4136,7 +4209,7 @@
         <v>36899</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R12" s="2"/>
     </row>
@@ -4158,10 +4231,10 @@
         <v>60</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H13" s="1"/>
-      <c r="I13" s="9">
+      <c r="I13" s="12">
         <v>58149</v>
       </c>
       <c r="J13" s="9" t="s">
@@ -4184,7 +4257,7 @@
         <v>42568</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R13" s="2"/>
     </row>
@@ -4206,10 +4279,10 @@
         <v>60</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H14" s="1"/>
-      <c r="I14" s="9">
+      <c r="I14" s="12">
         <v>43918</v>
       </c>
       <c r="J14" s="9" t="s">
@@ -4228,7 +4301,7 @@
         <v>42738</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R14" s="2"/>
     </row>
@@ -4250,10 +4323,10 @@
         <v>60</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>18</v>
+        <v>1018</v>
       </c>
       <c r="H15" s="1"/>
-      <c r="I15" s="9">
+      <c r="I15" s="12">
         <v>53332</v>
       </c>
       <c r="J15" s="9" t="s">
@@ -4274,7 +4347,7 @@
         <v>32962</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R15" s="2"/>
     </row>
@@ -4287,7 +4360,7 @@
         <v>52</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>49</v>
+        <v>1007</v>
       </c>
       <c r="E16" s="18">
         <v>20611</v>
@@ -4296,10 +4369,10 @@
         <v>60</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H16" s="1"/>
-      <c r="I16" s="9">
+      <c r="I16" s="12">
         <v>57547</v>
       </c>
       <c r="J16" s="9" t="s">
@@ -4320,11 +4393,11 @@
         <v>44301</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R16" s="2"/>
     </row>
-    <row r="17" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>170</v>
       </c>
@@ -4341,11 +4414,11 @@
       <c r="F17" s="22">
         <v>60</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>19</v>
+      <c r="G17" s="24" t="s">
+        <v>1016</v>
       </c>
       <c r="H17" s="1"/>
-      <c r="I17" s="9">
+      <c r="I17" s="12">
         <v>73497</v>
       </c>
       <c r="J17" s="9" t="s">
@@ -4366,7 +4439,7 @@
         <v>37272</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R17" s="2"/>
     </row>
@@ -4376,7 +4449,7 @@
       </c>
       <c r="B18" s="9"/>
       <c r="C18" s="9" t="s">
-        <v>55</v>
+        <v>1005</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>56</v>
@@ -4387,11 +4460,11 @@
       <c r="F18" s="22">
         <v>60</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>19</v>
+      <c r="G18" s="24" t="s">
+        <v>1016</v>
       </c>
       <c r="H18" s="1"/>
-      <c r="I18" s="9">
+      <c r="I18" s="12">
         <v>49850</v>
       </c>
       <c r="J18" s="9" t="s">
@@ -4412,7 +4485,7 @@
         <v>44754</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R18" s="1"/>
     </row>
@@ -4434,10 +4507,10 @@
         <v>100</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H19" s="1"/>
-      <c r="I19" s="9">
+      <c r="I19" s="12">
         <v>19432</v>
       </c>
       <c r="J19" s="9" t="s">
@@ -4460,7 +4533,7 @@
         <v>40179</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R19" s="2"/>
     </row>
@@ -4482,10 +4555,10 @@
         <v>60</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H20" s="1"/>
-      <c r="I20" s="9">
+      <c r="I20" s="12">
         <v>24948</v>
       </c>
       <c r="J20" s="9" t="s">
@@ -4506,7 +4579,7 @@
         <v>45321</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R20" s="2"/>
     </row>
@@ -4528,10 +4601,10 @@
         <v>60</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>18</v>
+        <v>1018</v>
       </c>
       <c r="H21" s="1"/>
-      <c r="I21" s="9">
+      <c r="I21" s="12">
         <v>63103</v>
       </c>
       <c r="J21" s="9" t="s">
@@ -4554,7 +4627,7 @@
         <v>41836</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R21" s="2"/>
     </row>
@@ -4576,10 +4649,10 @@
         <v>100</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H22" s="1"/>
-      <c r="I22" s="9"/>
+      <c r="I22" s="12"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
@@ -4594,7 +4667,7 @@
         <v>44343</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R22" s="2"/>
     </row>
@@ -4616,10 +4689,10 @@
         <v>300</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H23" s="1"/>
-      <c r="I23" s="9">
+      <c r="I23" s="12">
         <v>60532</v>
       </c>
       <c r="J23" s="9" t="s">
@@ -4642,7 +4715,7 @@
         <v>37501</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R23" s="2"/>
     </row>
@@ -4663,7 +4736,7 @@
       <c r="F24" s="22"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
-      <c r="I24" s="9"/>
+      <c r="I24" s="12"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c r="L24" s="9"/>
@@ -4676,7 +4749,7 @@
       </c>
       <c r="P24" s="20"/>
       <c r="Q24" s="2" t="s">
-        <v>795</v>
+        <v>1020</v>
       </c>
       <c r="R24" s="1" t="s">
         <v>8</v>
@@ -4691,7 +4764,7 @@
         <v>66</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>44</v>
+        <v>1010</v>
       </c>
       <c r="E25" s="18">
         <v>22725</v>
@@ -4700,10 +4773,10 @@
         <v>120</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H25" s="1"/>
-      <c r="I25" s="9">
+      <c r="I25" s="12">
         <v>84843</v>
       </c>
       <c r="J25" s="9" t="s">
@@ -4722,7 +4795,7 @@
         <v>43248</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R25" s="2"/>
     </row>
@@ -4743,7 +4816,7 @@
       <c r="F26" s="22"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
-      <c r="I26" s="9">
+      <c r="I26" s="12">
         <v>42904</v>
       </c>
       <c r="J26" s="9" t="s">
@@ -4762,19 +4835,19 @@
       <c r="O26" s="9"/>
       <c r="P26" s="20"/>
       <c r="Q26" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R26" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
         <v>263</v>
       </c>
       <c r="B27" s="9"/>
       <c r="C27" s="9" t="s">
-        <v>68</v>
+        <v>1006</v>
       </c>
       <c r="D27" s="9" t="s">
         <v>69</v>
@@ -4785,11 +4858,11 @@
       <c r="F27" s="22">
         <v>60</v>
       </c>
-      <c r="G27" s="1" t="s">
-        <v>19</v>
+      <c r="G27" s="24" t="s">
+        <v>1016</v>
       </c>
       <c r="H27" s="1"/>
-      <c r="I27" s="9">
+      <c r="I27" s="12">
         <v>93384</v>
       </c>
       <c r="J27" s="9" t="s">
@@ -4812,7 +4885,7 @@
         <v>40420</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R27" s="2"/>
     </row>
@@ -4833,7 +4906,7 @@
       <c r="F28" s="22"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="9">
+      <c r="I28" s="12">
         <v>37849</v>
       </c>
       <c r="J28" s="9" t="s">
@@ -4853,8 +4926,8 @@
         <v>340</v>
       </c>
       <c r="P28" s="20"/>
-      <c r="Q28" s="2" t="s">
-        <v>796</v>
+      <c r="Q28" s="1" t="s">
+        <v>1021</v>
       </c>
       <c r="R28" s="1" t="s">
         <v>9</v>
@@ -4878,10 +4951,10 @@
         <v>60</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H29" s="1"/>
-      <c r="I29" s="9">
+      <c r="I29" s="12">
         <v>99675</v>
       </c>
       <c r="J29" s="9" t="s">
@@ -4904,7 +4977,7 @@
         <v>35969</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R29" s="2"/>
     </row>
@@ -4926,10 +4999,10 @@
         <v>60</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H30" s="1"/>
-      <c r="I30" s="9">
+      <c r="I30" s="12">
         <v>42039</v>
       </c>
       <c r="J30" s="9" t="s">
@@ -4950,7 +5023,7 @@
         <v>43896</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R30" s="2"/>
     </row>
@@ -4971,7 +5044,7 @@
       <c r="F31" s="22"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="9">
+      <c r="I31" s="12">
         <v>67582</v>
       </c>
       <c r="J31" s="9" t="s">
@@ -4991,8 +5064,8 @@
         <v>347</v>
       </c>
       <c r="P31" s="20"/>
-      <c r="Q31" s="2" t="s">
-        <v>796</v>
+      <c r="Q31" s="1" t="s">
+        <v>1021</v>
       </c>
       <c r="R31" s="1" t="s">
         <v>9</v>
@@ -5016,10 +5089,10 @@
         <v>120</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H32" s="1"/>
-      <c r="I32" s="9">
+      <c r="I32" s="12">
         <v>83420</v>
       </c>
       <c r="J32" s="9" t="s">
@@ -5042,7 +5115,7 @@
         <v>43518</v>
       </c>
       <c r="Q32" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R32" s="2"/>
     </row>
@@ -5063,11 +5136,9 @@
       <c r="F33" s="22">
         <v>60</v>
       </c>
-      <c r="G33" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="G33" s="1"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="9">
+      <c r="I33" s="12">
         <v>45879</v>
       </c>
       <c r="J33" s="9" t="s">
@@ -5090,7 +5161,7 @@
         <v>41275</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>1003</v>
+        <v>1022</v>
       </c>
       <c r="R33" s="2" t="s">
         <v>10</v>
@@ -5113,11 +5184,11 @@
       <c r="F34" s="22">
         <v>60</v>
       </c>
-      <c r="G34" s="1" t="s">
-        <v>19</v>
+      <c r="G34" s="24" t="s">
+        <v>1016</v>
       </c>
       <c r="H34" s="1"/>
-      <c r="I34" s="9">
+      <c r="I34" s="12">
         <v>54919</v>
       </c>
       <c r="J34" s="9" t="s">
@@ -5136,7 +5207,7 @@
         <v>33701</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R34" s="2"/>
     </row>
@@ -5146,7 +5217,7 @@
       </c>
       <c r="B35" s="9"/>
       <c r="C35" s="9" t="s">
-        <v>81</v>
+        <v>1008</v>
       </c>
       <c r="D35" s="9" t="s">
         <v>54</v>
@@ -5158,10 +5229,10 @@
         <v>60</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H35" s="1"/>
-      <c r="I35" s="9">
+      <c r="I35" s="12">
         <v>94789</v>
       </c>
       <c r="J35" s="9" t="s">
@@ -5182,7 +5253,7 @@
         <v>38661</v>
       </c>
       <c r="Q35" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R35" s="2"/>
     </row>
@@ -5195,7 +5266,7 @@
         <v>82</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>83</v>
+        <v>1011</v>
       </c>
       <c r="E36" s="18">
         <v>23077</v>
@@ -5204,10 +5275,10 @@
         <v>60</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>18</v>
+        <v>1018</v>
       </c>
       <c r="H36" s="1"/>
-      <c r="I36" s="9"/>
+      <c r="I36" s="12"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
@@ -5220,7 +5291,7 @@
         <v>40064</v>
       </c>
       <c r="Q36" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R36" s="2"/>
     </row>
@@ -5242,10 +5313,10 @@
         <v>60</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H37" s="1"/>
-      <c r="I37" s="9">
+      <c r="I37" s="12">
         <v>76099</v>
       </c>
       <c r="J37" s="9" t="s">
@@ -5268,7 +5339,7 @@
         <v>33329</v>
       </c>
       <c r="Q37" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R37" s="2"/>
     </row>
@@ -5289,7 +5360,7 @@
       <c r="F38" s="22"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
-      <c r="I38" s="9">
+      <c r="I38" s="12">
         <v>14643</v>
       </c>
       <c r="J38" s="9" t="s">
@@ -5309,8 +5380,8 @@
         <v>363</v>
       </c>
       <c r="P38" s="20"/>
-      <c r="Q38" s="2" t="s">
-        <v>796</v>
+      <c r="Q38" s="1" t="s">
+        <v>1021</v>
       </c>
       <c r="R38" s="1" t="s">
         <v>9</v>
@@ -5334,10 +5405,10 @@
         <v>60</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H39" s="1"/>
-      <c r="I39" s="9">
+      <c r="I39" s="12">
         <v>40912</v>
       </c>
       <c r="J39" s="9" t="s">
@@ -5360,7 +5431,7 @@
         <v>34222</v>
       </c>
       <c r="Q39" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R39" s="2"/>
     </row>
@@ -5382,10 +5453,10 @@
         <v>60</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H40" s="1"/>
-      <c r="I40" s="9">
+      <c r="I40" s="12">
         <v>63392</v>
       </c>
       <c r="J40" s="9" t="s">
@@ -5408,10 +5479,10 @@
         <v>34342</v>
       </c>
       <c r="Q40" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R40" s="2" t="s">
-        <v>24</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="41" spans="1:18" ht="17" x14ac:dyDescent="0.2">
@@ -5420,7 +5491,7 @@
       </c>
       <c r="B41" s="9"/>
       <c r="C41" s="9" t="s">
-        <v>91</v>
+        <v>1009</v>
       </c>
       <c r="D41" s="9" t="s">
         <v>92</v>
@@ -5432,10 +5503,10 @@
         <v>60</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H41" s="1"/>
-      <c r="I41" s="9">
+      <c r="I41" s="12">
         <v>34045</v>
       </c>
       <c r="J41" s="9" t="s">
@@ -5458,7 +5529,7 @@
         <v>42368</v>
       </c>
       <c r="Q41" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R41" s="2"/>
     </row>
@@ -5480,10 +5551,10 @@
         <v>60</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H42" s="1"/>
-      <c r="I42" s="9">
+      <c r="I42" s="12">
         <v>11573</v>
       </c>
       <c r="J42" s="9" t="s">
@@ -5506,7 +5577,7 @@
         <v>37536</v>
       </c>
       <c r="Q42" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R42" s="2"/>
     </row>
@@ -5528,10 +5599,10 @@
         <v>60</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H43" s="1"/>
-      <c r="I43" s="9">
+      <c r="I43" s="12">
         <v>82055</v>
       </c>
       <c r="J43" s="9" t="s">
@@ -5550,7 +5621,7 @@
         <v>37956</v>
       </c>
       <c r="Q43" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R43" s="2"/>
     </row>
@@ -5572,10 +5643,10 @@
         <v>70</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>21</v>
+        <v>1017</v>
       </c>
       <c r="H44" s="1"/>
-      <c r="I44" s="9">
+      <c r="I44" s="12">
         <v>14406</v>
       </c>
       <c r="J44" s="9" t="s">
@@ -5598,7 +5669,7 @@
         <v>45737</v>
       </c>
       <c r="Q44" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R44" s="2"/>
     </row>
@@ -5619,11 +5690,11 @@
       <c r="F45" s="22">
         <v>72</v>
       </c>
-      <c r="G45" s="1" t="s">
-        <v>19</v>
+      <c r="G45" s="24" t="s">
+        <v>1016</v>
       </c>
       <c r="H45" s="1"/>
-      <c r="I45" s="9"/>
+      <c r="I45" s="12"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c r="L45" s="9"/>
@@ -5636,7 +5707,7 @@
         <v>33196</v>
       </c>
       <c r="Q45" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R45" s="2"/>
     </row>
@@ -5659,9 +5730,11 @@
       <c r="F46" s="22">
         <v>200</v>
       </c>
-      <c r="G46" s="1"/>
+      <c r="G46" s="1" t="s">
+        <v>1018</v>
+      </c>
       <c r="H46" s="1"/>
-      <c r="I46" s="9"/>
+      <c r="I46" s="12"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c r="L46" s="9"/>
@@ -5676,7 +5749,7 @@
         <v>33666</v>
       </c>
       <c r="Q46" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R46" s="2"/>
     </row>
@@ -5699,7 +5772,7 @@
       </c>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
-      <c r="I47" s="9">
+      <c r="I47" s="12">
         <v>95649</v>
       </c>
       <c r="J47" s="9" t="s">
@@ -5722,7 +5795,7 @@
         <v>35774</v>
       </c>
       <c r="Q47" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R47" s="2"/>
     </row>
@@ -5744,10 +5817,10 @@
         <v>60</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H48" s="1"/>
-      <c r="I48" s="9"/>
+      <c r="I48" s="12"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c r="L48" s="9"/>
@@ -5760,7 +5833,7 @@
         <v>37698</v>
       </c>
       <c r="Q48" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R48" s="2"/>
     </row>
@@ -5782,10 +5855,10 @@
         <v>60</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H49" s="1"/>
-      <c r="I49" s="9"/>
+      <c r="I49" s="12"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c r="L49" s="9"/>
@@ -5800,7 +5873,7 @@
         <v>42849</v>
       </c>
       <c r="Q49" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R49" s="2"/>
     </row>
@@ -5821,11 +5894,11 @@
       <c r="F50" s="22">
         <v>120</v>
       </c>
-      <c r="G50" s="1" t="s">
-        <v>19</v>
+      <c r="G50" s="24" t="s">
+        <v>1016</v>
       </c>
       <c r="H50" s="1"/>
-      <c r="I50" s="9">
+      <c r="I50" s="12">
         <v>85327</v>
       </c>
       <c r="J50" s="9" t="s">
@@ -5846,7 +5919,7 @@
         <v>33634</v>
       </c>
       <c r="Q50" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R50" s="2"/>
     </row>
@@ -5868,10 +5941,10 @@
         <v>60</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H51" s="1"/>
-      <c r="I51" s="9">
+      <c r="I51" s="12">
         <v>66986</v>
       </c>
       <c r="J51" s="9" t="s">
@@ -5892,7 +5965,7 @@
         <v>34608</v>
       </c>
       <c r="Q51" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R51" s="2"/>
     </row>
@@ -5917,7 +5990,7 @@
       <c r="H52" s="1">
         <v>2023</v>
       </c>
-      <c r="I52" s="9">
+      <c r="I52" s="12">
         <v>14406</v>
       </c>
       <c r="J52" s="9" t="s">
@@ -5936,7 +6009,7 @@
         <v>33175</v>
       </c>
       <c r="Q52" s="2" t="s">
-        <v>1003</v>
+        <v>1022</v>
       </c>
       <c r="R52" s="2" t="s">
         <v>11</v>
@@ -5960,10 +6033,10 @@
         <v>60</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H53" s="1"/>
-      <c r="I53" s="9">
+      <c r="I53" s="12">
         <v>92511</v>
       </c>
       <c r="J53" s="9" t="s">
@@ -5984,7 +6057,7 @@
         <v>38378</v>
       </c>
       <c r="Q53" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R53" s="2"/>
     </row>
@@ -6006,10 +6079,10 @@
         <v>70</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>21</v>
+        <v>1017</v>
       </c>
       <c r="H54" s="1"/>
-      <c r="I54" s="9">
+      <c r="I54" s="12">
         <v>54919</v>
       </c>
       <c r="J54" s="9" t="s">
@@ -6028,10 +6101,10 @@
         <v>45799</v>
       </c>
       <c r="Q54" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R54" s="2" t="s">
-        <v>615</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="55" spans="1:18" ht="17" x14ac:dyDescent="0.2">
@@ -6053,7 +6126,7 @@
       </c>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
-      <c r="I55" s="9">
+      <c r="I55" s="12">
         <v>35230</v>
       </c>
       <c r="J55" s="9" t="s">
@@ -6072,7 +6145,7 @@
         <v>33143</v>
       </c>
       <c r="Q55" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R55" s="1"/>
     </row>
@@ -6094,10 +6167,10 @@
         <v>60</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H56" s="1"/>
-      <c r="I56" s="9">
+      <c r="I56" s="12">
         <v>55831</v>
       </c>
       <c r="J56" s="9" t="s">
@@ -6118,7 +6191,7 @@
         <v>43066</v>
       </c>
       <c r="Q56" s="2" t="s">
-        <v>795</v>
+        <v>1020</v>
       </c>
       <c r="R56" s="1" t="s">
         <v>12</v>
@@ -6142,10 +6215,10 @@
         <v>60</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H57" s="1"/>
-      <c r="I57" s="9">
+      <c r="I57" s="12">
         <v>25323</v>
       </c>
       <c r="J57" s="9" t="s">
@@ -6168,7 +6241,7 @@
         <v>33135</v>
       </c>
       <c r="Q57" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R57" s="2"/>
     </row>
@@ -6190,10 +6263,10 @@
         <v>60</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H58" s="1"/>
-      <c r="I58" s="9">
+      <c r="I58" s="12">
         <v>84843</v>
       </c>
       <c r="J58" s="9" t="s">
@@ -6216,7 +6289,7 @@
         <v>35509</v>
       </c>
       <c r="Q58" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R58" s="2"/>
     </row>
@@ -6238,10 +6311,10 @@
         <v>60</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H59" s="1"/>
-      <c r="I59" s="9">
+      <c r="I59" s="12">
         <v>59246</v>
       </c>
       <c r="J59" s="9" t="s">
@@ -6262,7 +6335,7 @@
         <v>40787</v>
       </c>
       <c r="Q59" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R59" s="2"/>
     </row>
@@ -6275,7 +6348,7 @@
         <v>116</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>108</v>
+        <v>1012</v>
       </c>
       <c r="E60" s="18">
         <v>30622</v>
@@ -6283,11 +6356,11 @@
       <c r="F60" s="22">
         <v>84</v>
       </c>
-      <c r="G60" s="1" t="s">
-        <v>19</v>
+      <c r="G60" s="24" t="s">
+        <v>1016</v>
       </c>
       <c r="H60" s="1"/>
-      <c r="I60" s="9">
+      <c r="I60" s="12">
         <v>56890</v>
       </c>
       <c r="J60" s="9" t="s">
@@ -6310,7 +6383,7 @@
         <v>43878</v>
       </c>
       <c r="Q60" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R60" s="2"/>
     </row>
@@ -6331,7 +6404,7 @@
       <c r="F61" s="22"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
-      <c r="I61" s="9">
+      <c r="I61" s="12">
         <v>11273</v>
       </c>
       <c r="J61" s="9" t="s">
@@ -6352,7 +6425,7 @@
       </c>
       <c r="P61" s="20"/>
       <c r="Q61" s="2" t="s">
-        <v>796</v>
+        <v>1021</v>
       </c>
       <c r="R61" s="1" t="s">
         <v>9</v>
@@ -6376,10 +6449,10 @@
         <v>60</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H62" s="1"/>
-      <c r="I62" s="9"/>
+      <c r="I62" s="12"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c r="L62" s="9"/>
@@ -6392,7 +6465,7 @@
         <v>37018</v>
       </c>
       <c r="Q62" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R62" s="2"/>
     </row>
@@ -6414,10 +6487,10 @@
         <v>60</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>18</v>
+        <v>1018</v>
       </c>
       <c r="H63" s="1"/>
-      <c r="I63" s="9">
+      <c r="I63" s="12">
         <v>45480</v>
       </c>
       <c r="J63" s="9" t="s">
@@ -6436,7 +6509,7 @@
         <v>41497</v>
       </c>
       <c r="Q63" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R63" s="2"/>
     </row>
@@ -6458,10 +6531,10 @@
         <v>60</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H64" s="1"/>
-      <c r="I64" s="9">
+      <c r="I64" s="12">
         <v>85327</v>
       </c>
       <c r="J64" s="9" t="s">
@@ -6484,7 +6557,7 @@
         <v>40084</v>
       </c>
       <c r="Q64" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R64" s="2"/>
     </row>
@@ -6505,7 +6578,7 @@
       <c r="F65" s="22"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
-      <c r="I65" s="9"/>
+      <c r="I65" s="12"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c r="L65" s="9"/>
@@ -6516,7 +6589,7 @@
       <c r="O65" s="9"/>
       <c r="P65" s="20"/>
       <c r="Q65" s="2" t="s">
-        <v>796</v>
+        <v>1021</v>
       </c>
       <c r="R65" s="1" t="s">
         <v>9</v>
@@ -6540,10 +6613,10 @@
         <v>60</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H66" s="1"/>
-      <c r="I66" s="9">
+      <c r="I66" s="12">
         <v>62450</v>
       </c>
       <c r="J66" s="9" t="s">
@@ -6566,7 +6639,7 @@
         <v>41436</v>
       </c>
       <c r="Q66" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R66" s="2"/>
     </row>
@@ -6588,10 +6661,10 @@
         <v>60</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H67" s="1"/>
-      <c r="I67" s="9">
+      <c r="I67" s="12">
         <v>58275</v>
       </c>
       <c r="J67" s="9" t="s">
@@ -6612,7 +6685,7 @@
         <v>41442</v>
       </c>
       <c r="Q67" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R67" s="2"/>
     </row>
@@ -6634,10 +6707,10 @@
         <v>120</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H68" s="1"/>
-      <c r="I68" s="9">
+      <c r="I68" s="12">
         <v>26814</v>
       </c>
       <c r="J68" s="9" t="s">
@@ -6660,7 +6733,7 @@
         <v>37903</v>
       </c>
       <c r="Q68" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R68" s="2"/>
     </row>
@@ -6681,7 +6754,7 @@
       <c r="F69" s="22"/>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
-      <c r="I69" s="9"/>
+      <c r="I69" s="12"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c r="L69" s="9"/>
@@ -6692,7 +6765,7 @@
       <c r="O69" s="9"/>
       <c r="P69" s="20"/>
       <c r="Q69" s="2" t="s">
-        <v>796</v>
+        <v>1021</v>
       </c>
       <c r="R69" s="1" t="s">
         <v>13</v>
@@ -6716,10 +6789,10 @@
         <v>60</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H70" s="1"/>
-      <c r="I70" s="9"/>
+      <c r="I70" s="12"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c r="L70" s="9"/>
@@ -6732,7 +6805,7 @@
         <v>40972</v>
       </c>
       <c r="Q70" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R70" s="2"/>
     </row>
@@ -6753,11 +6826,11 @@
       <c r="F71" s="22">
         <v>60</v>
       </c>
-      <c r="G71" s="1" t="s">
-        <v>19</v>
+      <c r="G71" s="24" t="s">
+        <v>1016</v>
       </c>
       <c r="H71" s="1"/>
-      <c r="I71" s="9">
+      <c r="I71" s="12">
         <v>87340</v>
       </c>
       <c r="J71" s="9" t="s">
@@ -6776,7 +6849,7 @@
         <v>34165</v>
       </c>
       <c r="Q71" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R71" s="2"/>
     </row>
@@ -6798,10 +6871,10 @@
         <v>120</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H72" s="1"/>
-      <c r="I72" s="9">
+      <c r="I72" s="12">
         <v>45480</v>
       </c>
       <c r="J72" s="9" t="s">
@@ -6822,7 +6895,7 @@
         <v>41887</v>
       </c>
       <c r="Q72" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R72" s="2"/>
     </row>
@@ -6844,10 +6917,10 @@
         <v>102.26</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H73" s="1"/>
-      <c r="I73" s="9">
+      <c r="I73" s="12">
         <v>34045</v>
       </c>
       <c r="J73" s="9" t="s">
@@ -6868,7 +6941,7 @@
         <v>36463</v>
       </c>
       <c r="Q73" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R73" s="2"/>
     </row>
@@ -6889,11 +6962,11 @@
       <c r="F74" s="22">
         <v>60</v>
       </c>
-      <c r="G74" s="1" t="s">
-        <v>19</v>
+      <c r="G74" s="24" t="s">
+        <v>1016</v>
       </c>
       <c r="H74" s="1"/>
-      <c r="I74" s="9"/>
+      <c r="I74" s="12"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c r="L74" s="9"/>
@@ -6908,7 +6981,7 @@
         <v>33267</v>
       </c>
       <c r="Q74" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R74" s="2"/>
     </row>
@@ -6930,10 +7003,10 @@
         <v>60</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H75" s="1"/>
-      <c r="I75" s="9">
+      <c r="I75" s="12">
         <v>50868</v>
       </c>
       <c r="J75" s="9" t="s">
@@ -6956,7 +7029,7 @@
         <v>42964</v>
       </c>
       <c r="Q75" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R75" s="1"/>
     </row>
@@ -6979,7 +7052,7 @@
       </c>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
-      <c r="I76" s="9">
+      <c r="I76" s="12">
         <v>79691</v>
       </c>
       <c r="J76" s="9" t="s">
@@ -7002,7 +7075,7 @@
         <v>33173</v>
       </c>
       <c r="Q76" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R76" s="2"/>
     </row>
@@ -7024,10 +7097,10 @@
         <v>60</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H77" s="1"/>
-      <c r="I77" s="9"/>
+      <c r="I77" s="12"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c r="L77" s="9"/>
@@ -7038,7 +7111,7 @@
         <v>35913</v>
       </c>
       <c r="Q77" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R77" s="2"/>
     </row>
@@ -7060,10 +7133,10 @@
         <v>60</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H78" s="1"/>
-      <c r="I78" s="9">
+      <c r="I78" s="12">
         <v>28016</v>
       </c>
       <c r="J78" s="9" t="s">
@@ -7086,7 +7159,7 @@
         <v>40335</v>
       </c>
       <c r="Q78" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R78" s="2"/>
     </row>
@@ -7108,10 +7181,10 @@
         <v>60</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H79" s="1"/>
-      <c r="I79" s="9">
+      <c r="I79" s="12">
         <v>74330</v>
       </c>
       <c r="J79" s="9" t="s">
@@ -7134,10 +7207,10 @@
         <v>38275</v>
       </c>
       <c r="Q79" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R79" s="2" t="s">
-        <v>24</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="80" spans="1:18" ht="17" x14ac:dyDescent="0.2">
@@ -7157,7 +7230,7 @@
       <c r="F80" s="22"/>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
-      <c r="I80" s="9">
+      <c r="I80" s="12">
         <v>64286</v>
       </c>
       <c r="J80" s="9" t="s">
@@ -7178,7 +7251,7 @@
       </c>
       <c r="P80" s="20"/>
       <c r="Q80" s="2" t="s">
-        <v>796</v>
+        <v>1021</v>
       </c>
       <c r="R80" s="1" t="s">
         <v>9</v>
@@ -7202,10 +7275,10 @@
         <v>70</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>21</v>
+        <v>1017</v>
       </c>
       <c r="H81" s="1"/>
-      <c r="I81" s="9">
+      <c r="I81" s="12">
         <v>51168</v>
       </c>
       <c r="J81" s="9" t="s">
@@ -7228,7 +7301,7 @@
         <v>45779</v>
       </c>
       <c r="Q81" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R81" s="2"/>
     </row>
@@ -7250,10 +7323,10 @@
         <v>600</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H82" s="1"/>
-      <c r="I82" s="9">
+      <c r="I82" s="12">
         <v>86515</v>
       </c>
       <c r="J82" s="9" t="s">
@@ -7276,7 +7349,7 @@
         <v>39722</v>
       </c>
       <c r="Q82" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R82" s="2"/>
     </row>
@@ -7298,10 +7371,10 @@
         <v>60</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H83" s="1"/>
-      <c r="I83" s="9">
+      <c r="I83" s="12">
         <v>18972</v>
       </c>
       <c r="J83" s="9" t="s">
@@ -7324,7 +7397,7 @@
         <v>34612</v>
       </c>
       <c r="Q83" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R83" s="2"/>
     </row>
@@ -7337,7 +7410,7 @@
         <v>140</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>74</v>
+        <v>1014</v>
       </c>
       <c r="E84" s="18">
         <v>36758</v>
@@ -7347,7 +7420,7 @@
       </c>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
-      <c r="I84" s="9">
+      <c r="I84" s="12">
         <v>30354</v>
       </c>
       <c r="J84" s="9" t="s">
@@ -7370,7 +7443,7 @@
         <v>44956</v>
       </c>
       <c r="Q84" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R84" s="2"/>
     </row>
@@ -7383,7 +7456,7 @@
         <v>141</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>142</v>
+        <v>1013</v>
       </c>
       <c r="E85" s="18">
         <v>32250</v>
@@ -7392,10 +7465,10 @@
         <v>60</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H85" s="1"/>
-      <c r="I85" s="9"/>
+      <c r="I85" s="12"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c r="L85" s="9"/>
@@ -7410,7 +7483,7 @@
         <v>39508</v>
       </c>
       <c r="Q85" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R85" s="2"/>
     </row>
@@ -7432,10 +7505,10 @@
         <v>60</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>18</v>
+        <v>1018</v>
       </c>
       <c r="H86" s="1"/>
-      <c r="I86" s="9">
+      <c r="I86" s="12">
         <v>56401</v>
       </c>
       <c r="J86" s="9" t="s">
@@ -7458,7 +7531,7 @@
         <v>35222</v>
       </c>
       <c r="Q86" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R86" s="2"/>
     </row>
@@ -7481,7 +7554,7 @@
       </c>
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
-      <c r="I87" s="9">
+      <c r="I87" s="12">
         <v>12163</v>
       </c>
       <c r="J87" s="9" t="s">
@@ -7504,7 +7577,7 @@
         <v>45510</v>
       </c>
       <c r="Q87" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R87" s="2"/>
     </row>
@@ -7526,10 +7599,10 @@
         <v>60</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H88" s="1"/>
-      <c r="I88" s="9">
+      <c r="I88" s="12">
         <v>39347</v>
       </c>
       <c r="J88" s="9" t="s">
@@ -7550,7 +7623,7 @@
         <v>43847</v>
       </c>
       <c r="Q88" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R88" s="2"/>
     </row>
@@ -7573,7 +7646,7 @@
       </c>
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
-      <c r="I89" s="9">
+      <c r="I89" s="12">
         <v>82679</v>
       </c>
       <c r="J89" s="9" t="s">
@@ -7592,7 +7665,7 @@
         <v>36893</v>
       </c>
       <c r="Q89" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R89" s="2"/>
     </row>
@@ -7614,10 +7687,10 @@
         <v>60</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H90" s="1"/>
-      <c r="I90" s="9"/>
+      <c r="I90" s="12"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c r="L90" s="9"/>
@@ -7632,7 +7705,7 @@
         <v>40930</v>
       </c>
       <c r="Q90" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R90" s="2"/>
     </row>
@@ -7654,10 +7727,10 @@
         <v>60</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H91" s="1"/>
-      <c r="I91" s="9"/>
+      <c r="I91" s="12"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c r="L91" s="9"/>
@@ -7672,7 +7745,7 @@
         <v>39615</v>
       </c>
       <c r="Q91" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R91" s="1"/>
     </row>
@@ -7694,10 +7767,10 @@
         <v>60</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H92" s="1"/>
-      <c r="I92" s="9">
+      <c r="I92" s="12">
         <v>30114</v>
       </c>
       <c r="J92" s="9" t="s">
@@ -7718,7 +7791,7 @@
         <v>41448</v>
       </c>
       <c r="Q92" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R92" s="2"/>
     </row>
@@ -7741,7 +7814,7 @@
       </c>
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
-      <c r="I93" s="9">
+      <c r="I93" s="12">
         <v>82879</v>
       </c>
       <c r="J93" s="9" t="s">
@@ -7762,7 +7835,7 @@
         <v>33485</v>
       </c>
       <c r="Q93" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R93" s="2"/>
     </row>
@@ -7784,10 +7857,10 @@
         <v>60</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H94" s="1"/>
-      <c r="I94" s="9">
+      <c r="I94" s="12">
         <v>83481</v>
       </c>
       <c r="J94" s="9" t="s">
@@ -7808,7 +7881,7 @@
         <v>36961</v>
       </c>
       <c r="Q94" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R94" s="2"/>
     </row>
@@ -7830,10 +7903,10 @@
         <v>60</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H95" s="1"/>
-      <c r="I95" s="9">
+      <c r="I95" s="12">
         <v>89124</v>
       </c>
       <c r="J95" s="9" t="s">
@@ -7854,7 +7927,7 @@
         <v>43370</v>
       </c>
       <c r="Q95" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R95" s="1"/>
     </row>
@@ -7877,7 +7950,7 @@
       </c>
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
-      <c r="I96" s="9">
+      <c r="I96" s="12">
         <v>30933</v>
       </c>
       <c r="J96" s="9" t="s">
@@ -7898,7 +7971,7 @@
         <v>33117</v>
       </c>
       <c r="Q96" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R96" s="2"/>
     </row>
@@ -7920,10 +7993,10 @@
         <v>60</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H97" s="1"/>
-      <c r="I97" s="9"/>
+      <c r="I97" s="12"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c r="L97" s="9"/>
@@ -7936,7 +8009,7 @@
         <v>41582</v>
       </c>
       <c r="Q97" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R97" s="2"/>
     </row>
@@ -7958,10 +8031,10 @@
         <v>60</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H98" s="1"/>
-      <c r="I98" s="9">
+      <c r="I98" s="12">
         <v>33118</v>
       </c>
       <c r="J98" s="9" t="s">
@@ -7984,7 +8057,7 @@
         <v>35445</v>
       </c>
       <c r="Q98" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R98" s="2"/>
     </row>
@@ -8006,10 +8079,10 @@
         <v>100</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>18</v>
+        <v>1018</v>
       </c>
       <c r="H99" s="1"/>
-      <c r="I99" s="9">
+      <c r="I99" s="12">
         <v>34259</v>
       </c>
       <c r="J99" s="9" t="s">
@@ -8032,7 +8105,7 @@
         <v>44859</v>
       </c>
       <c r="Q99" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R99" s="2"/>
     </row>
@@ -8054,10 +8127,10 @@
         <v>60</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H100" s="1"/>
-      <c r="I100" s="9">
+      <c r="I100" s="12">
         <v>99675</v>
       </c>
       <c r="J100" s="9" t="s">
@@ -8080,7 +8153,7 @@
         <v>36854</v>
       </c>
       <c r="Q100" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R100" s="2"/>
     </row>
@@ -8102,10 +8175,10 @@
         <v>60</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H101" s="1"/>
-      <c r="I101" s="9">
+      <c r="I101" s="12">
         <v>88185</v>
       </c>
       <c r="J101" s="9" t="s">
@@ -8128,7 +8201,7 @@
         <v>44936</v>
       </c>
       <c r="Q101" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R101" s="2"/>
     </row>
@@ -8151,7 +8224,7 @@
       </c>
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
-      <c r="I102" s="9">
+      <c r="I102" s="12">
         <v>50540</v>
       </c>
       <c r="J102" s="9" t="s">
@@ -8172,7 +8245,7 @@
         <v>45358</v>
       </c>
       <c r="Q102" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R102" s="2"/>
     </row>
@@ -8194,10 +8267,10 @@
         <v>60</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H103" s="1"/>
-      <c r="I103" s="9">
+      <c r="I103" s="12">
         <v>37471</v>
       </c>
       <c r="J103" s="9" t="s">
@@ -8220,7 +8293,7 @@
         <v>36869</v>
       </c>
       <c r="Q103" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R103" s="2"/>
     </row>
@@ -8241,7 +8314,7 @@
       <c r="F104" s="22"/>
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
-      <c r="I104" s="9"/>
+      <c r="I104" s="12"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c r="L104" s="9"/>
@@ -8254,7 +8327,7 @@
       </c>
       <c r="P104" s="20"/>
       <c r="Q104" s="2" t="s">
-        <v>796</v>
+        <v>1021</v>
       </c>
       <c r="R104" s="1" t="s">
         <v>9</v>
@@ -8278,10 +8351,10 @@
         <v>60</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H105" s="1"/>
-      <c r="I105" s="9">
+      <c r="I105" s="12">
         <v>84230</v>
       </c>
       <c r="J105" s="9" t="s">
@@ -8300,7 +8373,7 @@
         <v>36535</v>
       </c>
       <c r="Q105" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R105" s="2"/>
     </row>
@@ -8322,10 +8395,10 @@
         <v>120</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H106" s="1"/>
-      <c r="I106" s="9"/>
+      <c r="I106" s="12"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c r="L106" s="9"/>
@@ -8338,7 +8411,7 @@
         <v>34651</v>
       </c>
       <c r="Q106" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R106" s="2"/>
     </row>
@@ -8360,10 +8433,10 @@
         <v>60</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H107" s="1"/>
-      <c r="I107" s="9">
+      <c r="I107" s="12">
         <v>94527</v>
       </c>
       <c r="J107" s="9" t="s">
@@ -8386,7 +8459,7 @@
         <v>34700</v>
       </c>
       <c r="Q107" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R107" s="2"/>
     </row>
@@ -8408,10 +8481,10 @@
         <v>60</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H108" s="1"/>
-      <c r="I108" s="9">
+      <c r="I108" s="12">
         <v>57991</v>
       </c>
       <c r="J108" s="9" t="s">
@@ -8432,7 +8505,7 @@
         <v>40199</v>
       </c>
       <c r="Q108" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R108" s="2"/>
     </row>
@@ -8455,7 +8528,7 @@
       </c>
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
-      <c r="I109" s="9">
+      <c r="I109" s="12">
         <v>41411</v>
       </c>
       <c r="J109" s="9" t="s">
@@ -8476,7 +8549,7 @@
         <v>37043</v>
       </c>
       <c r="Q109" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R109" s="2"/>
     </row>
@@ -8497,7 +8570,7 @@
       <c r="F110" s="22"/>
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
-      <c r="I110" s="9">
+      <c r="I110" s="12">
         <v>45480</v>
       </c>
       <c r="J110" s="9" t="s">
@@ -8518,7 +8591,7 @@
       </c>
       <c r="P110" s="20"/>
       <c r="Q110" s="2" t="s">
-        <v>796</v>
+        <v>1021</v>
       </c>
       <c r="R110" s="1" t="s">
         <v>14</v>
@@ -8544,10 +8617,10 @@
         <v>60</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H111" s="1"/>
-      <c r="I111" s="9">
+      <c r="I111" s="12">
         <v>70335</v>
       </c>
       <c r="J111" s="9" t="s">
@@ -8568,7 +8641,7 @@
         <v>44097</v>
       </c>
       <c r="Q111" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R111" s="2"/>
     </row>
@@ -8590,10 +8663,10 @@
         <v>60</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H112" s="1"/>
-      <c r="I112" s="9">
+      <c r="I112" s="12">
         <v>28138</v>
       </c>
       <c r="J112" s="9" t="s">
@@ -8614,7 +8687,7 @@
         <v>36595</v>
       </c>
       <c r="Q112" s="2" t="s">
-        <v>795</v>
+        <v>1020</v>
       </c>
       <c r="R112" s="1" t="s">
         <v>15</v>
@@ -8638,10 +8711,10 @@
         <v>60</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H113" s="1"/>
-      <c r="I113" s="9">
+      <c r="I113" s="12">
         <v>26670</v>
       </c>
       <c r="J113" s="9" t="s">
@@ -8662,7 +8735,7 @@
         <v>44573</v>
       </c>
       <c r="Q113" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R113" s="2"/>
     </row>
@@ -8685,7 +8758,7 @@
       </c>
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
-      <c r="I114" s="9">
+      <c r="I114" s="12">
         <v>15181</v>
       </c>
       <c r="J114" s="9" t="s">
@@ -8708,7 +8781,7 @@
         <v>33771</v>
       </c>
       <c r="Q114" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R114" s="2"/>
     </row>
@@ -8730,10 +8803,10 @@
         <v>60</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H115" s="1"/>
-      <c r="I115" s="9"/>
+      <c r="I115" s="12"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c r="L115" s="9"/>
@@ -8748,7 +8821,7 @@
         <v>38269</v>
       </c>
       <c r="Q115" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R115" s="2"/>
     </row>
@@ -8770,10 +8843,10 @@
         <v>60</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H116" s="1"/>
-      <c r="I116" s="9">
+      <c r="I116" s="12">
         <v>30748</v>
       </c>
       <c r="J116" s="9" t="s">
@@ -8794,7 +8867,7 @@
         <v>42831</v>
       </c>
       <c r="Q116" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R116" s="2"/>
     </row>
@@ -8816,10 +8889,10 @@
         <v>60</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H117" s="1"/>
-      <c r="I117" s="9">
+      <c r="I117" s="12">
         <v>25380</v>
       </c>
       <c r="J117" s="9" t="s">
@@ -8842,7 +8915,7 @@
         <v>37207</v>
       </c>
       <c r="Q117" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R117" s="2" t="s">
         <v>616</v>
@@ -8868,10 +8941,10 @@
         <v>60</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H118" s="1"/>
-      <c r="I118" s="9">
+      <c r="I118" s="12">
         <v>64732</v>
       </c>
       <c r="J118" s="9" t="s">
@@ -8892,7 +8965,7 @@
         <v>37286</v>
       </c>
       <c r="Q118" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R118" s="2" t="s">
         <v>617</v>
@@ -8916,10 +8989,10 @@
         <v>60</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H119" s="1"/>
-      <c r="I119" s="9">
+      <c r="I119" s="12">
         <v>28073</v>
       </c>
       <c r="J119" s="9" t="s">
@@ -8942,10 +9015,10 @@
         <v>43613</v>
       </c>
       <c r="Q119" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R119" s="2" t="s">
-        <v>24</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="120" spans="1:18" ht="17" x14ac:dyDescent="0.2">
@@ -8967,7 +9040,7 @@
       </c>
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
-      <c r="I120" s="9"/>
+      <c r="I120" s="12"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c r="L120" s="9"/>
@@ -8982,7 +9055,7 @@
         <v>33267</v>
       </c>
       <c r="Q120" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R120" s="2"/>
     </row>
@@ -9004,10 +9077,10 @@
         <v>60</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H121" s="1"/>
-      <c r="I121" s="9">
+      <c r="I121" s="12">
         <v>29467</v>
       </c>
       <c r="J121" s="9" t="s">
@@ -9028,7 +9101,7 @@
         <v>36889</v>
       </c>
       <c r="Q121" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R121" s="2"/>
     </row>
@@ -9050,10 +9123,10 @@
         <v>60</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H122" s="1"/>
-      <c r="I122" s="9">
+      <c r="I122" s="12">
         <v>62980</v>
       </c>
       <c r="J122" s="9" t="s">
@@ -9074,7 +9147,7 @@
         <v>36889</v>
       </c>
       <c r="Q122" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R122" s="2"/>
     </row>
@@ -9097,7 +9170,7 @@
       </c>
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
-      <c r="I123" s="9">
+      <c r="I123" s="12">
         <v>23590</v>
       </c>
       <c r="J123" s="9" t="s">
@@ -9120,7 +9193,7 @@
         <v>34455</v>
       </c>
       <c r="Q123" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R123" s="2"/>
     </row>
@@ -9143,7 +9216,7 @@
       </c>
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
-      <c r="I124" s="9">
+      <c r="I124" s="12">
         <v>36387</v>
       </c>
       <c r="J124" s="9" t="s">
@@ -9164,7 +9237,7 @@
         <v>44601</v>
       </c>
       <c r="Q124" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R124" s="2"/>
     </row>
@@ -9186,10 +9259,10 @@
         <v>60</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H125" s="1"/>
-      <c r="I125" s="9">
+      <c r="I125" s="12">
         <v>53595</v>
       </c>
       <c r="J125" s="9" t="s">
@@ -9212,7 +9285,7 @@
         <v>41656</v>
       </c>
       <c r="Q125" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R125" s="2"/>
     </row>
@@ -9233,7 +9306,7 @@
       <c r="F126" s="22"/>
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
-      <c r="I126" s="9"/>
+      <c r="I126" s="12"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c r="L126" s="9"/>
@@ -9246,7 +9319,7 @@
       </c>
       <c r="P126" s="20"/>
       <c r="Q126" s="2" t="s">
-        <v>796</v>
+        <v>1021</v>
       </c>
       <c r="R126" s="1" t="s">
         <v>9</v>
@@ -9270,10 +9343,10 @@
         <v>60</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H127" s="1"/>
-      <c r="I127" s="9">
+      <c r="I127" s="12">
         <v>77891</v>
       </c>
       <c r="J127" s="9" t="s">
@@ -9294,7 +9367,7 @@
         <v>37987</v>
       </c>
       <c r="Q127" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R127" s="1"/>
     </row>
@@ -9316,10 +9389,10 @@
         <v>61.36</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H128" s="1"/>
-      <c r="I128" s="9">
+      <c r="I128" s="12">
         <v>83481</v>
       </c>
       <c r="J128" s="9" t="s">
@@ -9340,7 +9413,7 @@
         <v>35763</v>
       </c>
       <c r="Q128" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R128" s="2"/>
     </row>
@@ -9362,10 +9435,10 @@
         <v>60</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H129" s="1"/>
-      <c r="I129" s="9">
+      <c r="I129" s="12">
         <v>92511</v>
       </c>
       <c r="J129" s="9" t="s">
@@ -9388,7 +9461,7 @@
         <v>45239</v>
       </c>
       <c r="Q129" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R129" s="2"/>
     </row>
@@ -9410,10 +9483,10 @@
         <v>60</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H130" s="1"/>
-      <c r="I130" s="9">
+      <c r="I130" s="12">
         <v>30933</v>
       </c>
       <c r="J130" s="9" t="s">
@@ -9434,7 +9507,7 @@
         <v>40913</v>
       </c>
       <c r="Q130" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R130" s="2"/>
     </row>
@@ -9456,10 +9529,10 @@
         <v>60</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H131" s="1"/>
-      <c r="I131" s="9">
+      <c r="I131" s="12">
         <v>39084</v>
       </c>
       <c r="J131" s="9" t="s">
@@ -9482,7 +9555,7 @@
         <v>42556</v>
       </c>
       <c r="Q131" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R131" s="2"/>
     </row>
@@ -9505,7 +9578,7 @@
       </c>
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
-      <c r="I132" s="9">
+      <c r="I132" s="12">
         <v>74904</v>
       </c>
       <c r="J132" s="9" t="s">
@@ -9528,7 +9601,7 @@
         <v>45510</v>
       </c>
       <c r="Q132" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R132" s="1"/>
     </row>
@@ -9550,10 +9623,10 @@
         <v>60</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H133" s="1"/>
-      <c r="I133" s="9">
+      <c r="I133" s="12">
         <v>18972</v>
       </c>
       <c r="J133" s="9" t="s">
@@ -9576,7 +9649,7 @@
         <v>38631</v>
       </c>
       <c r="Q133" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R133" s="2"/>
     </row>
@@ -9597,7 +9670,7 @@
       <c r="F134" s="22"/>
       <c r="G134" s="1"/>
       <c r="H134" s="1"/>
-      <c r="I134" s="9">
+      <c r="I134" s="12">
         <v>34470</v>
       </c>
       <c r="J134" s="9" t="s">
@@ -9616,7 +9689,7 @@
       </c>
       <c r="P134" s="20"/>
       <c r="Q134" s="2" t="s">
-        <v>795</v>
+        <v>1020</v>
       </c>
       <c r="R134" s="1" t="s">
         <v>16</v>
@@ -9639,7 +9712,7 @@
       <c r="F135" s="22"/>
       <c r="G135" s="1"/>
       <c r="H135" s="1"/>
-      <c r="I135" s="9">
+      <c r="I135" s="12">
         <v>44196</v>
       </c>
       <c r="J135" s="9" t="s">
@@ -9660,7 +9733,7 @@
       </c>
       <c r="P135" s="20"/>
       <c r="Q135" s="2" t="s">
-        <v>795</v>
+        <v>1020</v>
       </c>
       <c r="R135" s="1" t="s">
         <v>16</v>
@@ -9684,10 +9757,10 @@
         <v>60</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H136" s="1"/>
-      <c r="I136" s="9">
+      <c r="I136" s="12">
         <v>73686</v>
       </c>
       <c r="J136" s="9" t="s">
@@ -9710,7 +9783,7 @@
         <v>40848</v>
       </c>
       <c r="Q136" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R136" s="2"/>
     </row>
@@ -9732,10 +9805,10 @@
         <v>60</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>18</v>
+        <v>1018</v>
       </c>
       <c r="H137" s="1"/>
-      <c r="I137" s="9"/>
+      <c r="I137" s="12"/>
       <c r="J137" s="9"/>
       <c r="K137" s="9"/>
       <c r="L137" s="9"/>
@@ -9750,7 +9823,7 @@
         <v>34264</v>
       </c>
       <c r="Q137" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R137" s="2"/>
     </row>
@@ -9772,10 +9845,10 @@
         <v>60</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H138" s="1"/>
-      <c r="I138" s="9">
+      <c r="I138" s="12">
         <v>79141</v>
       </c>
       <c r="J138" s="9" t="s">
@@ -9796,7 +9869,7 @@
         <v>38937</v>
       </c>
       <c r="Q138" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R138" s="2"/>
     </row>
@@ -9818,10 +9891,10 @@
         <v>60</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H139" s="1"/>
-      <c r="I139" s="9">
+      <c r="I139" s="12">
         <v>65450</v>
       </c>
       <c r="J139" s="9" t="s">
@@ -9842,7 +9915,7 @@
         <v>40452</v>
       </c>
       <c r="Q139" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R139" s="2"/>
     </row>
@@ -9864,10 +9937,10 @@
         <v>60</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H140" s="1"/>
-      <c r="I140" s="9">
+      <c r="I140" s="12">
         <v>79691</v>
       </c>
       <c r="J140" s="9" t="s">
@@ -9890,7 +9963,7 @@
         <v>40151</v>
       </c>
       <c r="Q140" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R140" s="2"/>
     </row>
@@ -9913,7 +9986,7 @@
       </c>
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
-      <c r="I141" s="9">
+      <c r="I141" s="12">
         <v>31598</v>
       </c>
       <c r="J141" s="9" t="s">
@@ -9934,7 +10007,7 @@
         <v>45464</v>
       </c>
       <c r="Q141" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R141" s="2"/>
     </row>
@@ -9956,10 +10029,10 @@
         <v>60</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H142" s="1"/>
-      <c r="I142" s="9">
+      <c r="I142" s="12">
         <v>16465</v>
       </c>
       <c r="J142" s="9" t="s">
@@ -9982,7 +10055,7 @@
         <v>44577</v>
       </c>
       <c r="Q142" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R142" s="2"/>
     </row>
@@ -10004,10 +10077,10 @@
         <v>60</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H143" s="1"/>
-      <c r="I143" s="9"/>
+      <c r="I143" s="12"/>
       <c r="J143" s="9"/>
       <c r="K143" s="9"/>
       <c r="L143" s="9"/>
@@ -10018,7 +10091,7 @@
       </c>
       <c r="P143" s="20"/>
       <c r="Q143" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R143" s="2" t="s">
         <v>17</v>
@@ -10041,11 +10114,11 @@
       <c r="F144" s="22">
         <v>60</v>
       </c>
-      <c r="G144" s="1" t="s">
-        <v>19</v>
+      <c r="G144" s="24" t="s">
+        <v>1016</v>
       </c>
       <c r="H144" s="1"/>
-      <c r="I144" s="9">
+      <c r="I144" s="12">
         <v>79847</v>
       </c>
       <c r="J144" s="9" t="s">
@@ -10068,7 +10141,7 @@
         <v>45563</v>
       </c>
       <c r="Q144" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R144" s="1"/>
     </row>
@@ -10090,10 +10163,10 @@
         <v>60</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H145" s="1"/>
-      <c r="I145" s="9">
+      <c r="I145" s="12">
         <v>70335</v>
       </c>
       <c r="J145" s="9" t="s">
@@ -10116,7 +10189,7 @@
         <v>40532</v>
       </c>
       <c r="Q145" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R145" s="1"/>
     </row>
@@ -10138,10 +10211,10 @@
         <v>60</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H146" s="1"/>
-      <c r="I146" s="9">
+      <c r="I146" s="12">
         <v>84230</v>
       </c>
       <c r="J146" s="9" t="s">
@@ -10162,7 +10235,7 @@
         <v>40541</v>
       </c>
       <c r="Q146" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R146" s="2"/>
     </row>
@@ -10184,10 +10257,10 @@
         <v>100</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H147" s="1"/>
-      <c r="I147" s="9">
+      <c r="I147" s="12">
         <v>18054</v>
       </c>
       <c r="J147" s="9" t="s">
@@ -10210,7 +10283,7 @@
         <v>41244</v>
       </c>
       <c r="Q147" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R147" s="1"/>
     </row>
@@ -10232,10 +10305,10 @@
         <v>60</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H148" s="1"/>
-      <c r="I148" s="9">
+      <c r="I148" s="12">
         <v>91882</v>
       </c>
       <c r="J148" s="9" t="s">
@@ -10258,7 +10331,7 @@
         <v>39401</v>
       </c>
       <c r="Q148" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R148" s="2" t="s">
         <v>17</v>
@@ -10282,10 +10355,10 @@
         <v>60</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H149" s="1"/>
-      <c r="I149" s="9"/>
+      <c r="I149" s="12"/>
       <c r="J149" s="9"/>
       <c r="K149" s="9"/>
       <c r="L149" s="9"/>
@@ -10300,7 +10373,7 @@
         <v>34382</v>
       </c>
       <c r="Q149" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R149" s="2"/>
     </row>
@@ -10322,10 +10395,10 @@
         <v>60</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H150" s="1"/>
-      <c r="I150" s="9">
+      <c r="I150" s="12">
         <v>79519</v>
       </c>
       <c r="J150" s="9" t="s">
@@ -10348,7 +10421,7 @@
         <v>33635</v>
       </c>
       <c r="Q150" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R150" s="2"/>
     </row>
@@ -10370,10 +10443,10 @@
         <v>60</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H151" s="1"/>
-      <c r="I151" s="9">
+      <c r="I151" s="12">
         <v>45549</v>
       </c>
       <c r="J151" s="9" t="s">
@@ -10396,7 +10469,7 @@
         <v>35034</v>
       </c>
       <c r="Q151" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R151" s="2"/>
     </row>
@@ -10418,10 +10491,10 @@
         <v>100</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H152" s="1"/>
-      <c r="I152" s="9">
+      <c r="I152" s="12">
         <v>16409</v>
       </c>
       <c r="J152" s="9" t="s">
@@ -10442,7 +10515,7 @@
         <v>38003</v>
       </c>
       <c r="Q152" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R152" s="2"/>
     </row>
@@ -10464,10 +10537,10 @@
         <v>60</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>18</v>
+        <v>1018</v>
       </c>
       <c r="H153" s="1"/>
-      <c r="I153" s="9">
+      <c r="I153" s="12">
         <v>81989</v>
       </c>
       <c r="J153" s="9" t="s">
@@ -10490,7 +10563,7 @@
         <v>37505</v>
       </c>
       <c r="Q153" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R153" s="2"/>
     </row>
@@ -10512,10 +10585,10 @@
         <v>60</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H154" s="1"/>
-      <c r="I154" s="9">
+      <c r="I154" s="12">
         <v>24708</v>
       </c>
       <c r="J154" s="9" t="s">
@@ -10536,7 +10609,7 @@
         <v>41372</v>
       </c>
       <c r="Q154" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R154" s="2"/>
     </row>
@@ -10558,10 +10631,10 @@
         <v>100</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H155" s="1"/>
-      <c r="I155" s="9">
+      <c r="I155" s="12">
         <v>22761</v>
       </c>
       <c r="J155" s="9" t="s">
@@ -10584,7 +10657,7 @@
         <v>37015</v>
       </c>
       <c r="Q155" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R155" s="2"/>
     </row>
@@ -10606,10 +10679,10 @@
         <v>60</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H156" s="1"/>
-      <c r="I156" s="9">
+      <c r="I156" s="12">
         <v>10074</v>
       </c>
       <c r="J156" s="9" t="s">
@@ -10632,7 +10705,7 @@
         <v>37449</v>
       </c>
       <c r="Q156" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R156" s="2"/>
     </row>
@@ -10655,7 +10728,7 @@
       </c>
       <c r="G157" s="1"/>
       <c r="H157" s="1"/>
-      <c r="I157" s="9">
+      <c r="I157" s="12">
         <v>95649</v>
       </c>
       <c r="J157" s="9" t="s">
@@ -10676,7 +10749,7 @@
         <v>45104</v>
       </c>
       <c r="Q157" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R157" s="2"/>
     </row>
@@ -10698,10 +10771,10 @@
         <v>60</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H158" s="1"/>
-      <c r="I158" s="9">
+      <c r="I158" s="12">
         <v>30748</v>
       </c>
       <c r="J158" s="9" t="s">
@@ -10724,7 +10797,7 @@
         <v>37179</v>
       </c>
       <c r="Q158" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R158" s="2"/>
     </row>
@@ -10746,10 +10819,10 @@
         <v>60</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H159" s="1"/>
-      <c r="I159" s="9">
+      <c r="I159" s="12">
         <v>49993</v>
       </c>
       <c r="J159" s="9" t="s">
@@ -10772,7 +10845,7 @@
         <v>44155</v>
       </c>
       <c r="Q159" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R159" s="2"/>
     </row>
@@ -10794,10 +10867,10 @@
         <v>60</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H160" s="1"/>
-      <c r="I160" s="9"/>
+      <c r="I160" s="12"/>
       <c r="J160" s="9"/>
       <c r="K160" s="9"/>
       <c r="L160" s="9"/>
@@ -10808,7 +10881,7 @@
         <v>44526</v>
       </c>
       <c r="Q160" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R160" s="2"/>
     </row>
@@ -10829,11 +10902,11 @@
       <c r="F161" s="22">
         <v>92.04</v>
       </c>
-      <c r="G161" s="1" t="s">
-        <v>19</v>
+      <c r="G161" s="24" t="s">
+        <v>1016</v>
       </c>
       <c r="H161" s="1"/>
-      <c r="I161" s="9"/>
+      <c r="I161" s="12"/>
       <c r="J161" s="9"/>
       <c r="K161" s="9"/>
       <c r="L161" s="9"/>
@@ -10846,7 +10919,7 @@
         <v>33766</v>
       </c>
       <c r="Q161" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R161" s="2"/>
     </row>
@@ -10868,10 +10941,10 @@
         <v>60</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H162" s="1"/>
-      <c r="I162" s="9">
+      <c r="I162" s="12">
         <v>31568</v>
       </c>
       <c r="J162" s="9" t="s">
@@ -10892,7 +10965,7 @@
         <v>32962</v>
       </c>
       <c r="Q162" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R162" s="2"/>
     </row>
@@ -10914,10 +10987,10 @@
         <v>60</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H163" s="1"/>
-      <c r="I163" s="9">
+      <c r="I163" s="12">
         <v>94294</v>
       </c>
       <c r="J163" s="9" t="s">
@@ -10940,7 +11013,7 @@
         <v>33269</v>
       </c>
       <c r="Q163" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R163" s="2"/>
     </row>
@@ -10963,7 +11036,7 @@
       </c>
       <c r="G164" s="1"/>
       <c r="H164" s="1"/>
-      <c r="I164" s="9">
+      <c r="I164" s="12">
         <v>50640</v>
       </c>
       <c r="J164" s="9" t="s">
@@ -10982,7 +11055,7 @@
         <v>33418</v>
       </c>
       <c r="Q164" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R164" s="2"/>
     </row>
@@ -11003,11 +11076,11 @@
       <c r="F165" s="22">
         <v>60</v>
       </c>
-      <c r="G165" s="1" t="s">
-        <v>19</v>
+      <c r="G165" s="24" t="s">
+        <v>1016</v>
       </c>
       <c r="H165" s="1"/>
-      <c r="I165" s="9"/>
+      <c r="I165" s="12"/>
       <c r="J165" s="9"/>
       <c r="K165" s="9"/>
       <c r="L165" s="9"/>
@@ -11022,7 +11095,7 @@
         <v>42712</v>
       </c>
       <c r="Q165" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R165" s="2"/>
     </row>
@@ -11044,10 +11117,10 @@
         <v>60</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H166" s="1"/>
-      <c r="I166" s="9">
+      <c r="I166" s="12">
         <v>92240</v>
       </c>
       <c r="J166" s="9" t="s">
@@ -11068,7 +11141,7 @@
         <v>38163</v>
       </c>
       <c r="Q166" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R166" s="2"/>
     </row>
@@ -11089,7 +11162,7 @@
       <c r="F167" s="22"/>
       <c r="G167" s="1"/>
       <c r="H167" s="1"/>
-      <c r="I167" s="9">
+      <c r="I167" s="12">
         <v>21201</v>
       </c>
       <c r="J167" s="9" t="s">
@@ -11108,7 +11181,7 @@
       </c>
       <c r="P167" s="20"/>
       <c r="Q167" s="2" t="s">
-        <v>796</v>
+        <v>1021</v>
       </c>
       <c r="R167" s="1" t="s">
         <v>9</v>
@@ -11132,10 +11205,10 @@
         <v>120</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H168" s="1"/>
-      <c r="I168" s="9"/>
+      <c r="I168" s="12"/>
       <c r="J168" s="9"/>
       <c r="K168" s="9"/>
       <c r="L168" s="9"/>
@@ -11150,7 +11223,7 @@
         <v>45556</v>
       </c>
       <c r="Q168" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R168" s="2"/>
     </row>
@@ -11173,7 +11246,7 @@
       </c>
       <c r="G169" s="1"/>
       <c r="H169" s="1"/>
-      <c r="I169" s="9">
+      <c r="I169" s="12">
         <v>83481</v>
       </c>
       <c r="J169" s="9" t="s">
@@ -11194,7 +11267,7 @@
         <v>34003</v>
       </c>
       <c r="Q169" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R169" s="2"/>
     </row>
@@ -11216,10 +11289,10 @@
         <v>60</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H170" s="1"/>
-      <c r="I170" s="9">
+      <c r="I170" s="12">
         <v>26814</v>
       </c>
       <c r="J170" s="9" t="s">
@@ -11242,7 +11315,7 @@
         <v>38294</v>
       </c>
       <c r="Q170" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R170" s="2"/>
     </row>
@@ -11263,11 +11336,11 @@
       <c r="F171" s="22">
         <v>60</v>
       </c>
-      <c r="G171" s="1" t="s">
-        <v>19</v>
+      <c r="G171" s="24" t="s">
+        <v>1016</v>
       </c>
       <c r="H171" s="1"/>
-      <c r="I171" s="9">
+      <c r="I171" s="12">
         <v>24719</v>
       </c>
       <c r="J171" s="9" t="s">
@@ -11290,7 +11363,7 @@
         <v>34806</v>
       </c>
       <c r="Q171" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R171" s="2"/>
     </row>
@@ -11311,11 +11384,11 @@
       <c r="F172" s="22">
         <v>120</v>
       </c>
-      <c r="G172" s="1" t="s">
-        <v>19</v>
+      <c r="G172" s="24" t="s">
+        <v>1016</v>
       </c>
       <c r="H172" s="1"/>
-      <c r="I172" s="9">
+      <c r="I172" s="12">
         <v>96436</v>
       </c>
       <c r="J172" s="9" t="s">
@@ -11338,7 +11411,7 @@
         <v>2010</v>
       </c>
       <c r="Q172" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R172" s="2"/>
     </row>
@@ -11360,10 +11433,10 @@
         <v>100</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H173" s="1"/>
-      <c r="I173" s="9">
+      <c r="I173" s="12">
         <v>88933</v>
       </c>
       <c r="J173" s="9" t="s">
@@ -11384,7 +11457,7 @@
         <v>45446</v>
       </c>
       <c r="Q173" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R173" s="2"/>
     </row>
@@ -11406,10 +11479,10 @@
         <v>60</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H174" s="1"/>
-      <c r="I174" s="9">
+      <c r="I174" s="12">
         <v>13149</v>
       </c>
       <c r="J174" s="9" t="s">
@@ -11432,7 +11505,7 @@
         <v>40288</v>
       </c>
       <c r="Q174" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R174" s="2"/>
     </row>
@@ -11454,10 +11527,10 @@
         <v>60</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H175" s="1"/>
-      <c r="I175" s="9">
+      <c r="I175" s="12">
         <v>19432</v>
       </c>
       <c r="J175" s="9" t="s">
@@ -11478,7 +11551,7 @@
         <v>43157</v>
       </c>
       <c r="Q175" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R175" s="2"/>
     </row>
@@ -11500,10 +11573,10 @@
         <v>60</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H176" s="1"/>
-      <c r="I176" s="9">
+      <c r="I176" s="12">
         <v>20803</v>
       </c>
       <c r="J176" s="9" t="s">
@@ -11526,7 +11599,7 @@
         <v>38781</v>
       </c>
       <c r="Q176" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R176" s="1"/>
     </row>
@@ -11548,10 +11621,10 @@
         <v>60</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H177" s="1"/>
-      <c r="I177" s="9">
+      <c r="I177" s="12">
         <v>94789</v>
       </c>
       <c r="J177" s="9" t="s">
@@ -11572,7 +11645,7 @@
         <v>37193</v>
       </c>
       <c r="Q177" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R177" s="2"/>
     </row>
@@ -11594,10 +11667,10 @@
         <v>60</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H178" s="1"/>
-      <c r="I178" s="9"/>
+      <c r="I178" s="12"/>
       <c r="J178" s="9"/>
       <c r="K178" s="9"/>
       <c r="L178" s="9"/>
@@ -11612,7 +11685,7 @@
         <v>37193</v>
       </c>
       <c r="Q178" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R178" s="2"/>
     </row>
@@ -11634,10 +11707,10 @@
         <v>60</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H179" s="1"/>
-      <c r="I179" s="9">
+      <c r="I179" s="12">
         <v>29467</v>
       </c>
       <c r="J179" s="9" t="s">
@@ -11660,7 +11733,7 @@
         <v>44992</v>
       </c>
       <c r="Q179" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R179" s="2"/>
     </row>
@@ -11682,10 +11755,10 @@
         <v>60</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H180" s="1"/>
-      <c r="I180" s="9"/>
+      <c r="I180" s="12"/>
       <c r="J180" s="9"/>
       <c r="K180" s="9"/>
       <c r="L180" s="9"/>
@@ -11698,10 +11771,10 @@
         <v>42756</v>
       </c>
       <c r="Q180" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R180" s="2" t="s">
-        <v>24</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="181" spans="1:18" ht="17" x14ac:dyDescent="0.2">
@@ -11722,10 +11795,10 @@
         <v>70</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H181" s="1"/>
-      <c r="I181" s="9">
+      <c r="I181" s="12">
         <v>14643</v>
       </c>
       <c r="J181" s="9" t="s">
@@ -11748,7 +11821,7 @@
         <v>39448</v>
       </c>
       <c r="Q181" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R181" s="2" t="s">
         <v>816</v>
@@ -11772,10 +11845,10 @@
         <v>60</v>
       </c>
       <c r="G182" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H182" s="1"/>
-      <c r="I182" s="9">
+      <c r="I182" s="12">
         <v>94294</v>
       </c>
       <c r="J182" s="9" t="s">
@@ -11796,7 +11869,7 @@
         <v>45454</v>
       </c>
       <c r="Q182" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R182" s="2"/>
     </row>
@@ -11817,11 +11890,11 @@
       <c r="F183" s="22">
         <v>240</v>
       </c>
-      <c r="G183" s="1" t="s">
-        <v>19</v>
+      <c r="G183" s="24" t="s">
+        <v>1016</v>
       </c>
       <c r="H183" s="1"/>
-      <c r="I183" s="9"/>
+      <c r="I183" s="12"/>
       <c r="J183" s="9"/>
       <c r="K183" s="9"/>
       <c r="L183" s="9"/>
@@ -11834,7 +11907,7 @@
         <v>45151</v>
       </c>
       <c r="Q183" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R183" s="2"/>
     </row>
@@ -11856,10 +11929,10 @@
         <v>60</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H184" s="1"/>
-      <c r="I184" s="9">
+      <c r="I184" s="12">
         <v>79847</v>
       </c>
       <c r="J184" s="9" t="s">
@@ -11882,7 +11955,7 @@
         <v>38389</v>
       </c>
       <c r="Q184" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R184" s="2"/>
     </row>
@@ -11901,9 +11974,11 @@
         <v>29255</v>
       </c>
       <c r="F185" s="22"/>
-      <c r="G185" s="1"/>
+      <c r="G185" s="1" t="s">
+        <v>1018</v>
+      </c>
       <c r="H185" s="1"/>
-      <c r="I185" s="9">
+      <c r="I185" s="12">
         <v>88383</v>
       </c>
       <c r="J185" s="9" t="s">
@@ -11922,7 +11997,7 @@
       <c r="O185" s="9"/>
       <c r="P185" s="20"/>
       <c r="Q185" s="2" t="s">
-        <v>795</v>
+        <v>1020</v>
       </c>
       <c r="R185" s="1" t="s">
         <v>16</v>
@@ -11947,7 +12022,7 @@
       </c>
       <c r="G186" s="1"/>
       <c r="H186" s="1"/>
-      <c r="I186" s="9">
+      <c r="I186" s="12">
         <v>42463</v>
       </c>
       <c r="J186" s="9" t="s">
@@ -11970,7 +12045,7 @@
         <v>33224</v>
       </c>
       <c r="Q186" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R186" s="2"/>
     </row>
@@ -11991,11 +12066,11 @@
       <c r="F187" s="22">
         <v>60</v>
       </c>
-      <c r="G187" s="1" t="s">
-        <v>19</v>
+      <c r="G187" s="24" t="s">
+        <v>1016</v>
       </c>
       <c r="H187" s="1"/>
-      <c r="I187" s="9">
+      <c r="I187" s="12">
         <v>60566</v>
       </c>
       <c r="J187" s="9" t="s">
@@ -12018,7 +12093,7 @@
         <v>44910</v>
       </c>
       <c r="Q187" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R187" s="2"/>
     </row>
@@ -12040,10 +12115,10 @@
         <v>60</v>
       </c>
       <c r="G188" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H188" s="1"/>
-      <c r="I188" s="9"/>
+      <c r="I188" s="12"/>
       <c r="J188" s="9"/>
       <c r="K188" s="9"/>
       <c r="L188" s="9"/>
@@ -12058,7 +12133,7 @@
         <v>39053</v>
       </c>
       <c r="Q188" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R188" s="2"/>
     </row>
@@ -12080,10 +12155,10 @@
         <v>60</v>
       </c>
       <c r="G189" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H189" s="1"/>
-      <c r="I189" s="9">
+      <c r="I189" s="12">
         <v>56401</v>
       </c>
       <c r="J189" s="9" t="s">
@@ -12104,7 +12179,7 @@
         <v>42551</v>
       </c>
       <c r="Q189" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R189" s="2"/>
     </row>
@@ -12126,10 +12201,10 @@
         <v>60</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H190" s="1"/>
-      <c r="I190" s="9">
+      <c r="I190" s="12">
         <v>60566</v>
       </c>
       <c r="J190" s="9" t="s">
@@ -12152,7 +12227,7 @@
         <v>39855</v>
       </c>
       <c r="Q190" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R190" s="2" t="s">
         <v>616</v>
@@ -12175,11 +12250,11 @@
       <c r="F191" s="22">
         <v>60</v>
       </c>
-      <c r="G191" s="1" t="s">
-        <v>19</v>
+      <c r="G191" s="24" t="s">
+        <v>1016</v>
       </c>
       <c r="H191" s="1"/>
-      <c r="I191" s="9">
+      <c r="I191" s="12">
         <v>24292</v>
       </c>
       <c r="J191" s="9" t="s">
@@ -12200,7 +12275,7 @@
         <v>45607</v>
       </c>
       <c r="Q191" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R191" s="2"/>
     </row>
@@ -12221,7 +12296,7 @@
       <c r="F192" s="22"/>
       <c r="G192" s="1"/>
       <c r="H192" s="1"/>
-      <c r="I192" s="9"/>
+      <c r="I192" s="12"/>
       <c r="J192" s="9"/>
       <c r="K192" s="9"/>
       <c r="L192" s="9"/>
@@ -12232,7 +12307,7 @@
       <c r="O192" s="9"/>
       <c r="P192" s="20"/>
       <c r="Q192" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R192" s="1" t="s">
         <v>9</v>
@@ -12255,7 +12330,7 @@
       <c r="F193" s="22"/>
       <c r="G193" s="1"/>
       <c r="H193" s="1"/>
-      <c r="I193" s="9"/>
+      <c r="I193" s="12"/>
       <c r="J193" s="9"/>
       <c r="K193" s="9"/>
       <c r="L193" s="9"/>
@@ -12268,7 +12343,7 @@
       </c>
       <c r="P193" s="20"/>
       <c r="Q193" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R193" s="1" t="s">
         <v>9</v>
@@ -12292,10 +12367,10 @@
         <v>60</v>
       </c>
       <c r="G194" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H194" s="1"/>
-      <c r="I194" s="9">
+      <c r="I194" s="12">
         <v>21739</v>
       </c>
       <c r="J194" s="9" t="s">
@@ -12318,7 +12393,7 @@
         <v>34046</v>
       </c>
       <c r="Q194" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R194" s="2"/>
     </row>
@@ -12339,11 +12414,11 @@
       <c r="F195" s="22">
         <v>120</v>
       </c>
-      <c r="G195" s="1" t="s">
-        <v>19</v>
+      <c r="G195" s="24" t="s">
+        <v>1016</v>
       </c>
       <c r="H195" s="1"/>
-      <c r="I195" s="9">
+      <c r="I195" s="12">
         <v>51162</v>
       </c>
       <c r="J195" s="9" t="s">
@@ -12366,10 +12441,10 @@
         <v>36314</v>
       </c>
       <c r="Q195" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R195" s="2" t="s">
-        <v>24</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="196" spans="1:18" ht="34" x14ac:dyDescent="0.2">
@@ -12390,10 +12465,10 @@
         <v>60</v>
       </c>
       <c r="G196" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H196" s="1"/>
-      <c r="I196" s="9"/>
+      <c r="I196" s="12"/>
       <c r="J196" s="9"/>
       <c r="K196" s="9"/>
       <c r="L196" s="9"/>
@@ -12406,10 +12481,10 @@
         <v>33993</v>
       </c>
       <c r="Q196" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R196" s="2" t="s">
-        <v>24</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="197" spans="1:18" ht="17" x14ac:dyDescent="0.2">
@@ -12430,10 +12505,10 @@
         <v>60</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H197" s="1"/>
-      <c r="I197" s="9"/>
+      <c r="I197" s="12"/>
       <c r="J197" s="9"/>
       <c r="K197" s="9"/>
       <c r="L197" s="9"/>
@@ -12448,7 +12523,7 @@
         <v>36620</v>
       </c>
       <c r="Q197" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R197" s="2"/>
     </row>
@@ -12472,10 +12547,10 @@
         <v>60</v>
       </c>
       <c r="G198" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H198" s="1"/>
-      <c r="I198" s="9">
+      <c r="I198" s="12">
         <v>98888</v>
       </c>
       <c r="J198" s="9" t="s">
@@ -12498,7 +12573,7 @@
         <v>35885</v>
       </c>
       <c r="Q198" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R198" s="2"/>
     </row>
@@ -12520,10 +12595,10 @@
         <v>60</v>
       </c>
       <c r="G199" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H199" s="1"/>
-      <c r="I199" s="9">
+      <c r="I199" s="12">
         <v>85327</v>
       </c>
       <c r="J199" s="9" t="s">
@@ -12546,7 +12621,7 @@
         <v>40085</v>
       </c>
       <c r="Q199" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R199" s="2"/>
     </row>
@@ -12569,7 +12644,7 @@
       <c r="F200" s="22"/>
       <c r="G200" s="1"/>
       <c r="H200" s="1"/>
-      <c r="I200" s="9">
+      <c r="I200" s="12">
         <v>15674</v>
       </c>
       <c r="J200" s="9" t="s">
@@ -12588,7 +12663,7 @@
       <c r="O200" s="9"/>
       <c r="P200" s="20"/>
       <c r="Q200" s="2" t="s">
-        <v>796</v>
+        <v>1021</v>
       </c>
       <c r="R200" s="1" t="s">
         <v>9</v>
@@ -12612,10 +12687,10 @@
         <v>60</v>
       </c>
       <c r="G201" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H201" s="1"/>
-      <c r="I201" s="9"/>
+      <c r="I201" s="12"/>
       <c r="J201" s="9"/>
       <c r="K201" s="9"/>
       <c r="L201" s="9"/>
@@ -12630,7 +12705,7 @@
         <v>1990</v>
       </c>
       <c r="Q201" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R201" s="2"/>
     </row>
@@ -12652,10 +12727,10 @@
         <v>60</v>
       </c>
       <c r="G202" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H202" s="1"/>
-      <c r="I202" s="9">
+      <c r="I202" s="12">
         <v>50607</v>
       </c>
       <c r="J202" s="9" t="s">
@@ -12678,10 +12753,10 @@
         <v>34086</v>
       </c>
       <c r="Q202" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R202" s="2" t="s">
-        <v>24</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="203" spans="1:18" ht="17" x14ac:dyDescent="0.2">
@@ -12702,10 +12777,10 @@
         <v>60</v>
       </c>
       <c r="G203" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H203" s="1"/>
-      <c r="I203" s="9">
+      <c r="I203" s="12">
         <v>34413</v>
       </c>
       <c r="J203" s="9" t="s">
@@ -12728,7 +12803,7 @@
         <v>44139</v>
       </c>
       <c r="Q203" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R203" s="1"/>
     </row>
@@ -12750,10 +12825,10 @@
         <v>60</v>
       </c>
       <c r="G204" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H204" s="1"/>
-      <c r="I204" s="9">
+      <c r="I204" s="12">
         <v>96151</v>
       </c>
       <c r="J204" s="9" t="s">
@@ -12776,7 +12851,7 @@
         <v>39326</v>
       </c>
       <c r="Q204" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R204" s="2"/>
     </row>
@@ -12798,10 +12873,10 @@
         <v>60</v>
       </c>
       <c r="G205" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H205" s="1"/>
-      <c r="I205" s="9">
+      <c r="I205" s="12">
         <v>73417</v>
       </c>
       <c r="J205" s="9" t="s">
@@ -12824,7 +12899,7 @@
         <v>36151</v>
       </c>
       <c r="Q205" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R205" s="2"/>
     </row>
@@ -12846,10 +12921,10 @@
         <v>60</v>
       </c>
       <c r="G206" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H206" s="1"/>
-      <c r="I206" s="9">
+      <c r="I206" s="12">
         <v>65523</v>
       </c>
       <c r="J206" s="9" t="s">
@@ -12870,7 +12945,7 @@
         <v>45249</v>
       </c>
       <c r="Q206" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R206" s="2"/>
     </row>
@@ -12892,10 +12967,10 @@
         <v>60</v>
       </c>
       <c r="G207" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H207" s="1"/>
-      <c r="I207" s="9">
+      <c r="I207" s="12">
         <v>69926</v>
       </c>
       <c r="J207" s="9" t="s">
@@ -12918,7 +12993,7 @@
         <v>45249</v>
       </c>
       <c r="Q207" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R207" s="2"/>
     </row>
@@ -12940,10 +13015,10 @@
         <v>60</v>
       </c>
       <c r="G208" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H208" s="1"/>
-      <c r="I208" s="9">
+      <c r="I208" s="12">
         <v>93686</v>
       </c>
       <c r="J208" s="9" t="s">
@@ -12966,7 +13041,7 @@
         <v>44497</v>
       </c>
       <c r="Q208" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R208" s="2"/>
     </row>
@@ -12988,10 +13063,10 @@
         <v>60</v>
       </c>
       <c r="G209" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H209" s="1"/>
-      <c r="I209" s="9">
+      <c r="I209" s="12">
         <v>88740</v>
       </c>
       <c r="J209" s="9" t="s">
@@ -13014,7 +13089,7 @@
         <v>37367</v>
       </c>
       <c r="Q209" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R209" s="2"/>
     </row>
@@ -13036,10 +13111,10 @@
         <v>60</v>
       </c>
       <c r="G210" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H210" s="1"/>
-      <c r="I210" s="9">
+      <c r="I210" s="12">
         <v>12070</v>
       </c>
       <c r="J210" s="9" t="s">
@@ -13062,7 +13137,7 @@
         <v>45189</v>
       </c>
       <c r="Q210" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R210" s="2"/>
     </row>
@@ -13084,10 +13159,10 @@
         <v>60</v>
       </c>
       <c r="G211" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H211" s="1"/>
-      <c r="I211" s="9">
+      <c r="I211" s="12">
         <v>57266</v>
       </c>
       <c r="J211" s="9" t="s">
@@ -13110,7 +13185,7 @@
         <v>40234</v>
       </c>
       <c r="Q211" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R211" s="2"/>
     </row>
@@ -13132,10 +13207,10 @@
         <v>60</v>
       </c>
       <c r="G212" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H212" s="1"/>
-      <c r="I212" s="9"/>
+      <c r="I212" s="12"/>
       <c r="J212" s="9"/>
       <c r="K212" s="9"/>
       <c r="L212" s="9"/>
@@ -13150,7 +13225,7 @@
         <v>39814</v>
       </c>
       <c r="Q212" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R212" s="2"/>
     </row>
@@ -13174,10 +13249,10 @@
         <v>60</v>
       </c>
       <c r="G213" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H213" s="1"/>
-      <c r="I213" s="9">
+      <c r="I213" s="12">
         <v>60653</v>
       </c>
       <c r="J213" s="9" t="s">
@@ -13196,7 +13271,7 @@
         <v>39448</v>
       </c>
       <c r="Q213" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R213" s="2"/>
     </row>
@@ -13219,7 +13294,7 @@
       </c>
       <c r="G214" s="1"/>
       <c r="H214" s="1"/>
-      <c r="I214" s="9">
+      <c r="I214" s="12">
         <v>65582</v>
       </c>
       <c r="J214" s="9" t="s">
@@ -13238,7 +13313,7 @@
         <v>33703</v>
       </c>
       <c r="Q214" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R214" s="2"/>
     </row>
@@ -13260,10 +13335,10 @@
         <v>60</v>
       </c>
       <c r="G215" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H215" s="1"/>
-      <c r="I215" s="9"/>
+      <c r="I215" s="12"/>
       <c r="J215" s="9"/>
       <c r="K215" s="9"/>
       <c r="L215" s="9"/>
@@ -13278,10 +13353,10 @@
         <v>37580</v>
       </c>
       <c r="Q215" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R215" s="2" t="s">
-        <v>24</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="216" spans="1:18" ht="17" x14ac:dyDescent="0.2">
@@ -13302,10 +13377,10 @@
         <v>60</v>
       </c>
       <c r="G216" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H216" s="1"/>
-      <c r="I216" s="9">
+      <c r="I216" s="12">
         <v>11973</v>
       </c>
       <c r="J216" s="9" t="s">
@@ -13328,7 +13403,7 @@
         <v>39772</v>
       </c>
       <c r="Q216" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R216" s="2"/>
     </row>
@@ -13351,7 +13426,7 @@
       </c>
       <c r="G217" s="1"/>
       <c r="H217" s="1"/>
-      <c r="I217" s="9">
+      <c r="I217" s="12">
         <v>47778</v>
       </c>
       <c r="J217" s="9" t="s">
@@ -13372,7 +13447,7 @@
         <v>39448</v>
       </c>
       <c r="Q217" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R217" s="2"/>
     </row>
@@ -13394,10 +13469,10 @@
         <v>60</v>
       </c>
       <c r="G218" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H218" s="1"/>
-      <c r="I218" s="9">
+      <c r="I218" s="12">
         <v>70371</v>
       </c>
       <c r="J218" s="9" t="s">
@@ -13416,7 +13491,7 @@
         <v>34383</v>
       </c>
       <c r="Q218" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R218" s="2"/>
     </row>
@@ -13438,10 +13513,10 @@
         <v>60</v>
       </c>
       <c r="G219" s="1" t="s">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="H219" s="1"/>
-      <c r="I219" s="9">
+      <c r="I219" s="12">
         <v>67582</v>
       </c>
       <c r="J219" s="9" t="s">
@@ -13464,7 +13539,7 @@
         <v>45489</v>
       </c>
       <c r="Q219" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="R219" s="2"/>
     </row>

--- a/anonymisierte Mitgliedsliste/TSV-DD-anonymisierte-Mitgliedsliste-2025-11-04.xlsx
+++ b/anonymisierte Mitgliedsliste/TSV-DD-anonymisierte-Mitgliedsliste-2025-11-04.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/StephanieOtt_1/Desktop/Tierschutzverein Dresden e.V. Datenverwaltung/anonymisierte Mitgliedsliste/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B765B4D3-C7F2-E948-A6AB-F27EA0C8536D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{883A8DA3-8F9E-C940-93A7-7A64F75F6694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6280" yWindow="620" windowWidth="29560" windowHeight="21780" xr2:uid="{CDF540AD-7EAB-404A-860D-442BCC6A36DD}"/>
+    <workbookView xWindow="8700" yWindow="780" windowWidth="29560" windowHeight="21780" xr2:uid="{CDF540AD-7EAB-404A-860D-442BCC6A36DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle" sheetId="10" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8348" uniqueCount="1026">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8393" uniqueCount="1027">
   <si>
     <t>Titel</t>
   </si>
@@ -3123,6 +3123,9 @@
   </si>
   <si>
     <t>09301</t>
+  </si>
+  <si>
+    <t>UNDEFINIERT</t>
   </si>
 </sst>
 </file>
@@ -3229,7 +3232,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3301,6 +3304,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3639,8 +3648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5060606-918E-8A4D-BDE4-F9D7A3599E5A}">
   <dimension ref="A1:R219"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="B179" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L207" sqref="L207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3649,7 +3658,7 @@
     <col min="2" max="2" width="10.83203125" style="11"/>
     <col min="3" max="4" width="17.6640625" style="11" customWidth="1"/>
     <col min="5" max="5" width="21.33203125" style="19" customWidth="1"/>
-    <col min="6" max="6" width="11.1640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" style="13" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="26.6640625" style="11" customWidth="1"/>
     <col min="8" max="8" width="13" style="11" customWidth="1"/>
     <col min="9" max="9" width="17.5" style="13" customWidth="1"/>
@@ -3663,7 +3672,7 @@
     <col min="19" max="16384" width="10.83203125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="6" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" s="6" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>798</v>
       </c>
@@ -3679,7 +3688,7 @@
       <c r="E1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="25" t="s">
         <v>815</v>
       </c>
       <c r="G1" s="3" t="s">
@@ -3735,13 +3744,15 @@
       <c r="E2" s="18">
         <v>27764</v>
       </c>
-      <c r="F2" s="22">
+      <c r="F2" s="26">
         <v>60</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H2" s="1"/>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
       <c r="I2" s="12" t="s">
         <v>1025</v>
       </c>
@@ -3785,13 +3796,15 @@
       <c r="E3" s="18">
         <v>18836</v>
       </c>
-      <c r="F3" s="22">
+      <c r="F3" s="26">
         <v>60</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H3" s="1"/>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
       <c r="I3" s="12"/>
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
@@ -3827,11 +3840,15 @@
       <c r="E4" s="18">
         <v>19098</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F4" s="26">
         <v>100</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
       <c r="I4" s="12">
         <v>89866</v>
       </c>
@@ -3871,13 +3888,15 @@
       <c r="E5" s="18">
         <v>21690</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F5" s="26">
         <v>60</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H5" s="1"/>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
       <c r="I5" s="12">
         <v>62433</v>
       </c>
@@ -3919,11 +3938,15 @@
       <c r="E6" s="18">
         <v>23084</v>
       </c>
-      <c r="F6" s="22">
-        <v>60</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="F6" s="26">
+        <v>60</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
       <c r="I6" s="12"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
@@ -3957,13 +3980,15 @@
       <c r="E7" s="18">
         <v>26892</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7" s="26">
         <v>120</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H7" s="1"/>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
       <c r="I7" s="12">
         <v>67582</v>
       </c>
@@ -4003,13 +4028,15 @@
       <c r="E8" s="18">
         <v>17964</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8" s="26">
         <v>200</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>1018</v>
       </c>
-      <c r="H8" s="1"/>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
       <c r="I8" s="12">
         <v>19755</v>
       </c>
@@ -4053,13 +4080,15 @@
       <c r="E9" s="18">
         <v>24763</v>
       </c>
-      <c r="F9" s="22">
+      <c r="F9" s="26">
         <v>100</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H9" s="1"/>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
       <c r="I9" s="12"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
@@ -4093,13 +4122,15 @@
       <c r="E10" s="18">
         <v>16266</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F10" s="26">
         <v>60</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H10" s="1"/>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
       <c r="I10" s="12">
         <v>14976</v>
       </c>
@@ -4141,13 +4172,15 @@
       <c r="E11" s="18">
         <v>16659</v>
       </c>
-      <c r="F11" s="22">
+      <c r="F11" s="26">
         <v>72</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H11" s="1"/>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
       <c r="I11" s="12"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
@@ -4181,11 +4214,15 @@
       <c r="E12" s="18">
         <v>26821</v>
       </c>
-      <c r="F12" s="22">
+      <c r="F12" s="26">
         <v>150</v>
       </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+      <c r="G12" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
       <c r="I12" s="12">
         <v>43657</v>
       </c>
@@ -4227,13 +4264,15 @@
       <c r="E13" s="18">
         <v>18792</v>
       </c>
-      <c r="F13" s="22">
+      <c r="F13" s="26">
         <v>60</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H13" s="1"/>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
       <c r="I13" s="12">
         <v>58149</v>
       </c>
@@ -4275,13 +4314,15 @@
       <c r="E14" s="18">
         <v>15365</v>
       </c>
-      <c r="F14" s="22">
+      <c r="F14" s="26">
         <v>60</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H14" s="1"/>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
       <c r="I14" s="12">
         <v>43918</v>
       </c>
@@ -4319,13 +4360,15 @@
       <c r="E15" s="18">
         <v>5012</v>
       </c>
-      <c r="F15" s="22">
+      <c r="F15" s="26">
         <v>60</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>1018</v>
       </c>
-      <c r="H15" s="1"/>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
       <c r="I15" s="12">
         <v>53332</v>
       </c>
@@ -4365,13 +4408,15 @@
       <c r="E16" s="18">
         <v>20611</v>
       </c>
-      <c r="F16" s="22">
+      <c r="F16" s="26">
         <v>60</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H16" s="1"/>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
       <c r="I16" s="12">
         <v>57547</v>
       </c>
@@ -4411,13 +4456,15 @@
       <c r="E17" s="18">
         <v>16058</v>
       </c>
-      <c r="F17" s="22">
+      <c r="F17" s="26">
         <v>60</v>
       </c>
       <c r="G17" s="24" t="s">
         <v>1016</v>
       </c>
-      <c r="H17" s="1"/>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
       <c r="I17" s="12">
         <v>73497</v>
       </c>
@@ -4443,7 +4490,7 @@
       </c>
       <c r="R17" s="2"/>
     </row>
-    <row r="18" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>392</v>
       </c>
@@ -4457,13 +4504,15 @@
       <c r="E18" s="18">
         <v>36219</v>
       </c>
-      <c r="F18" s="22">
+      <c r="F18" s="26">
         <v>60</v>
       </c>
       <c r="G18" s="24" t="s">
         <v>1016</v>
       </c>
-      <c r="H18" s="1"/>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
       <c r="I18" s="12">
         <v>49850</v>
       </c>
@@ -4503,13 +4552,15 @@
       <c r="E19" s="18">
         <v>15650</v>
       </c>
-      <c r="F19" s="22">
+      <c r="F19" s="26">
         <v>100</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H19" s="1"/>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
       <c r="I19" s="12">
         <v>19432</v>
       </c>
@@ -4551,13 +4602,15 @@
       <c r="E20" s="18">
         <v>22008</v>
       </c>
-      <c r="F20" s="22">
+      <c r="F20" s="26">
         <v>60</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H20" s="1"/>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
       <c r="I20" s="12">
         <v>24948</v>
       </c>
@@ -4597,13 +4650,15 @@
       <c r="E21" s="18">
         <v>17938</v>
       </c>
-      <c r="F21" s="22">
+      <c r="F21" s="26">
         <v>60</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>1018</v>
       </c>
-      <c r="H21" s="1"/>
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
       <c r="I21" s="12">
         <v>63103</v>
       </c>
@@ -4645,13 +4700,15 @@
       <c r="E22" s="18">
         <v>33032</v>
       </c>
-      <c r="F22" s="22">
+      <c r="F22" s="26">
         <v>100</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H22" s="1"/>
+      <c r="H22" s="1">
+        <v>0</v>
+      </c>
       <c r="I22" s="12"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
@@ -4685,13 +4742,15 @@
       <c r="E23" s="18">
         <v>18230</v>
       </c>
-      <c r="F23" s="22">
+      <c r="F23" s="26">
         <v>300</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H23" s="1"/>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
       <c r="I23" s="12">
         <v>60532</v>
       </c>
@@ -4733,9 +4792,13 @@
       <c r="E24" s="18">
         <v>30836</v>
       </c>
-      <c r="F24" s="22"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
       <c r="I24" s="12"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
@@ -4769,13 +4832,15 @@
       <c r="E25" s="18">
         <v>22725</v>
       </c>
-      <c r="F25" s="22">
+      <c r="F25" s="26">
         <v>120</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H25" s="1"/>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
       <c r="I25" s="12">
         <v>84843</v>
       </c>
@@ -4813,9 +4878,13 @@
       <c r="E26" s="18">
         <v>17048</v>
       </c>
-      <c r="F26" s="22"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0</v>
+      </c>
       <c r="I26" s="12">
         <v>42904</v>
       </c>
@@ -4855,13 +4924,15 @@
       <c r="E27" s="18">
         <v>19427</v>
       </c>
-      <c r="F27" s="22">
+      <c r="F27" s="26">
         <v>60</v>
       </c>
       <c r="G27" s="24" t="s">
         <v>1016</v>
       </c>
-      <c r="H27" s="1"/>
+      <c r="H27" s="1">
+        <v>0</v>
+      </c>
       <c r="I27" s="12">
         <v>93384</v>
       </c>
@@ -4903,9 +4974,13 @@
       <c r="E28" s="18">
         <v>15148</v>
       </c>
-      <c r="F28" s="22"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0</v>
+      </c>
       <c r="I28" s="12">
         <v>37849</v>
       </c>
@@ -4947,13 +5022,15 @@
       <c r="E29" s="18">
         <v>27806</v>
       </c>
-      <c r="F29" s="22">
+      <c r="F29" s="26">
         <v>60</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H29" s="1"/>
+      <c r="H29" s="1">
+        <v>0</v>
+      </c>
       <c r="I29" s="12">
         <v>99675</v>
       </c>
@@ -4995,13 +5072,15 @@
       <c r="E30" s="18">
         <v>18507</v>
       </c>
-      <c r="F30" s="22">
+      <c r="F30" s="26">
         <v>60</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H30" s="1"/>
+      <c r="H30" s="1">
+        <v>0</v>
+      </c>
       <c r="I30" s="12">
         <v>42039</v>
       </c>
@@ -5041,9 +5120,13 @@
       <c r="E31" s="18">
         <v>15235</v>
       </c>
-      <c r="F31" s="22"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0</v>
+      </c>
       <c r="I31" s="12">
         <v>67582</v>
       </c>
@@ -5085,13 +5168,15 @@
       <c r="E32" s="18">
         <v>33469</v>
       </c>
-      <c r="F32" s="22">
+      <c r="F32" s="26">
         <v>120</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H32" s="1"/>
+      <c r="H32" s="1">
+        <v>0</v>
+      </c>
       <c r="I32" s="12">
         <v>83420</v>
       </c>
@@ -5133,11 +5218,15 @@
       <c r="E33" s="18">
         <v>23744</v>
       </c>
-      <c r="F33" s="22">
-        <v>60</v>
-      </c>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
+      <c r="F33" s="26">
+        <v>60</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0</v>
+      </c>
       <c r="I33" s="12">
         <v>45879</v>
       </c>
@@ -5167,7 +5256,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="8">
         <v>53</v>
       </c>
@@ -5181,13 +5270,15 @@
       <c r="E34" s="18">
         <v>16939</v>
       </c>
-      <c r="F34" s="22">
+      <c r="F34" s="26">
         <v>60</v>
       </c>
       <c r="G34" s="24" t="s">
         <v>1016</v>
       </c>
-      <c r="H34" s="1"/>
+      <c r="H34" s="1">
+        <v>0</v>
+      </c>
       <c r="I34" s="12">
         <v>54919</v>
       </c>
@@ -5225,13 +5316,15 @@
       <c r="E35" s="18">
         <v>15109</v>
       </c>
-      <c r="F35" s="22">
+      <c r="F35" s="26">
         <v>60</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H35" s="1"/>
+      <c r="H35" s="1">
+        <v>0</v>
+      </c>
       <c r="I35" s="12">
         <v>94789</v>
       </c>
@@ -5271,13 +5364,15 @@
       <c r="E36" s="18">
         <v>23077</v>
       </c>
-      <c r="F36" s="22">
+      <c r="F36" s="26">
         <v>60</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>1018</v>
       </c>
-      <c r="H36" s="1"/>
+      <c r="H36" s="1">
+        <v>0</v>
+      </c>
       <c r="I36" s="12"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
@@ -5309,13 +5404,15 @@
       <c r="E37" s="18">
         <v>23738</v>
       </c>
-      <c r="F37" s="22">
+      <c r="F37" s="26">
         <v>60</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H37" s="1"/>
+      <c r="H37" s="1">
+        <v>0</v>
+      </c>
       <c r="I37" s="12">
         <v>76099</v>
       </c>
@@ -5357,9 +5454,13 @@
       <c r="E38" s="18">
         <v>17670</v>
       </c>
-      <c r="F38" s="22"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0</v>
+      </c>
       <c r="I38" s="12">
         <v>14643</v>
       </c>
@@ -5401,13 +5502,15 @@
       <c r="E39" s="18">
         <v>26988</v>
       </c>
-      <c r="F39" s="22">
+      <c r="F39" s="26">
         <v>60</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H39" s="1"/>
+      <c r="H39" s="1">
+        <v>0</v>
+      </c>
       <c r="I39" s="12">
         <v>40912</v>
       </c>
@@ -5449,13 +5552,15 @@
       <c r="E40" s="18">
         <v>27432</v>
       </c>
-      <c r="F40" s="22">
+      <c r="F40" s="26">
         <v>60</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H40" s="1"/>
+      <c r="H40" s="1">
+        <v>0</v>
+      </c>
       <c r="I40" s="12">
         <v>63392</v>
       </c>
@@ -5499,13 +5604,15 @@
       <c r="E41" s="18">
         <v>14037</v>
       </c>
-      <c r="F41" s="22">
+      <c r="F41" s="26">
         <v>60</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H41" s="1"/>
+      <c r="H41" s="1">
+        <v>0</v>
+      </c>
       <c r="I41" s="12">
         <v>34045</v>
       </c>
@@ -5547,13 +5654,15 @@
       <c r="E42" s="18">
         <v>23949</v>
       </c>
-      <c r="F42" s="22">
+      <c r="F42" s="26">
         <v>60</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H42" s="1"/>
+      <c r="H42" s="1">
+        <v>0</v>
+      </c>
       <c r="I42" s="12">
         <v>11573</v>
       </c>
@@ -5595,13 +5704,15 @@
       <c r="E43" s="18">
         <v>19513</v>
       </c>
-      <c r="F43" s="22">
+      <c r="F43" s="26">
         <v>60</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H43" s="1"/>
+      <c r="H43" s="1">
+        <v>0</v>
+      </c>
       <c r="I43" s="12">
         <v>82055</v>
       </c>
@@ -5639,13 +5750,15 @@
       <c r="E44" s="18">
         <v>29213</v>
       </c>
-      <c r="F44" s="22">
+      <c r="F44" s="26">
         <v>70</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>1017</v>
       </c>
-      <c r="H44" s="1"/>
+      <c r="H44" s="1">
+        <v>0</v>
+      </c>
       <c r="I44" s="12">
         <v>14406</v>
       </c>
@@ -5673,7 +5786,7 @@
       </c>
       <c r="R44" s="2"/>
     </row>
-    <row r="45" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="8">
         <v>24</v>
       </c>
@@ -5687,13 +5800,15 @@
       <c r="E45" s="18">
         <v>23096</v>
       </c>
-      <c r="F45" s="22">
+      <c r="F45" s="26">
         <v>72</v>
       </c>
       <c r="G45" s="24" t="s">
         <v>1016</v>
       </c>
-      <c r="H45" s="1"/>
+      <c r="H45" s="1">
+        <v>0</v>
+      </c>
       <c r="I45" s="12"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
@@ -5727,13 +5842,15 @@
       <c r="E46" s="18">
         <v>21986</v>
       </c>
-      <c r="F46" s="22">
+      <c r="F46" s="26">
         <v>200</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>1018</v>
       </c>
-      <c r="H46" s="1"/>
+      <c r="H46" s="1">
+        <v>0</v>
+      </c>
       <c r="I46" s="12"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
@@ -5767,11 +5884,15 @@
       <c r="E47" s="18">
         <v>17902</v>
       </c>
-      <c r="F47" s="22">
+      <c r="F47" s="26">
         <v>100</v>
       </c>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
+      <c r="G47" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="H47" s="1">
+        <v>0</v>
+      </c>
       <c r="I47" s="12">
         <v>95649</v>
       </c>
@@ -5813,13 +5934,15 @@
       <c r="E48" s="18">
         <v>17065</v>
       </c>
-      <c r="F48" s="22">
+      <c r="F48" s="26">
         <v>60</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H48" s="1"/>
+      <c r="H48" s="1">
+        <v>0</v>
+      </c>
       <c r="I48" s="12"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
@@ -5851,13 +5974,15 @@
       <c r="E49" s="18">
         <v>36330</v>
       </c>
-      <c r="F49" s="22">
+      <c r="F49" s="26">
         <v>60</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H49" s="1"/>
+      <c r="H49" s="1">
+        <v>0</v>
+      </c>
       <c r="I49" s="12"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
@@ -5877,7 +6002,7 @@
       </c>
       <c r="R49" s="2"/>
     </row>
-    <row r="50" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="8">
         <v>45</v>
       </c>
@@ -5891,13 +6016,15 @@
       <c r="E50" s="18">
         <v>27041</v>
       </c>
-      <c r="F50" s="22">
+      <c r="F50" s="26">
         <v>120</v>
       </c>
       <c r="G50" s="24" t="s">
         <v>1016</v>
       </c>
-      <c r="H50" s="1"/>
+      <c r="H50" s="1">
+        <v>0</v>
+      </c>
       <c r="I50" s="12">
         <v>85327</v>
       </c>
@@ -5937,13 +6064,15 @@
       <c r="E51" s="18">
         <v>25816</v>
       </c>
-      <c r="F51" s="22">
+      <c r="F51" s="26">
         <v>60</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H51" s="1"/>
+      <c r="H51" s="1">
+        <v>0</v>
+      </c>
       <c r="I51" s="12">
         <v>66986</v>
       </c>
@@ -5983,10 +6112,12 @@
       <c r="E52" s="18">
         <v>18558</v>
       </c>
-      <c r="F52" s="22">
-        <v>60</v>
-      </c>
-      <c r="G52" s="1"/>
+      <c r="F52" s="26">
+        <v>60</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>1026</v>
+      </c>
       <c r="H52" s="1">
         <v>2023</v>
       </c>
@@ -6029,13 +6160,15 @@
       <c r="E53" s="18">
         <v>12193</v>
       </c>
-      <c r="F53" s="22">
+      <c r="F53" s="26">
         <v>60</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H53" s="1"/>
+      <c r="H53" s="1">
+        <v>0</v>
+      </c>
       <c r="I53" s="12">
         <v>92511</v>
       </c>
@@ -6075,13 +6208,15 @@
       <c r="E54" s="18">
         <v>30855</v>
       </c>
-      <c r="F54" s="22">
+      <c r="F54" s="26">
         <v>70</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>1017</v>
       </c>
-      <c r="H54" s="1"/>
+      <c r="H54" s="1">
+        <v>0</v>
+      </c>
       <c r="I54" s="12">
         <v>54919</v>
       </c>
@@ -6121,11 +6256,15 @@
       <c r="E55" s="18">
         <v>23722</v>
       </c>
-      <c r="F55" s="22">
+      <c r="F55" s="26">
         <v>100</v>
       </c>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
+      <c r="G55" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="H55" s="1">
+        <v>0</v>
+      </c>
       <c r="I55" s="12">
         <v>35230</v>
       </c>
@@ -6163,13 +6302,15 @@
       <c r="E56" s="18">
         <v>18792</v>
       </c>
-      <c r="F56" s="22">
+      <c r="F56" s="26">
         <v>60</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H56" s="1"/>
+      <c r="H56" s="1">
+        <v>0</v>
+      </c>
       <c r="I56" s="12">
         <v>55831</v>
       </c>
@@ -6211,13 +6352,15 @@
       <c r="E57" s="18">
         <v>17953</v>
       </c>
-      <c r="F57" s="22">
+      <c r="F57" s="26">
         <v>60</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H57" s="1"/>
+      <c r="H57" s="1">
+        <v>0</v>
+      </c>
       <c r="I57" s="12">
         <v>25323</v>
       </c>
@@ -6259,13 +6402,15 @@
       <c r="E58" s="18">
         <v>28542</v>
       </c>
-      <c r="F58" s="22">
+      <c r="F58" s="26">
         <v>60</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H58" s="1"/>
+      <c r="H58" s="1">
+        <v>0</v>
+      </c>
       <c r="I58" s="12">
         <v>84843</v>
       </c>
@@ -6307,13 +6452,15 @@
       <c r="E59" s="18">
         <v>26942</v>
       </c>
-      <c r="F59" s="22">
+      <c r="F59" s="26">
         <v>60</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H59" s="1"/>
+      <c r="H59" s="1">
+        <v>0</v>
+      </c>
       <c r="I59" s="12">
         <v>59246</v>
       </c>
@@ -6339,7 +6486,7 @@
       </c>
       <c r="R59" s="2"/>
     </row>
-    <row r="60" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="8">
         <v>375</v>
       </c>
@@ -6353,13 +6500,15 @@
       <c r="E60" s="18">
         <v>30622</v>
       </c>
-      <c r="F60" s="22">
+      <c r="F60" s="26">
         <v>84</v>
       </c>
       <c r="G60" s="24" t="s">
         <v>1016</v>
       </c>
-      <c r="H60" s="1"/>
+      <c r="H60" s="1">
+        <v>0</v>
+      </c>
       <c r="I60" s="12">
         <v>56890</v>
       </c>
@@ -6401,9 +6550,13 @@
       <c r="E61" s="18">
         <v>33099</v>
       </c>
-      <c r="F61" s="22"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
+      <c r="F61" s="26"/>
+      <c r="G61" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="H61" s="1">
+        <v>0</v>
+      </c>
       <c r="I61" s="12">
         <v>11273</v>
       </c>
@@ -6445,13 +6598,15 @@
       <c r="E62" s="18">
         <v>22573</v>
       </c>
-      <c r="F62" s="22">
+      <c r="F62" s="26">
         <v>60</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H62" s="1"/>
+      <c r="H62" s="1">
+        <v>0</v>
+      </c>
       <c r="I62" s="12"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
@@ -6483,13 +6638,15 @@
       <c r="E63" s="18">
         <v>31161</v>
       </c>
-      <c r="F63" s="22">
+      <c r="F63" s="26">
         <v>60</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>1018</v>
       </c>
-      <c r="H63" s="1"/>
+      <c r="H63" s="1">
+        <v>0</v>
+      </c>
       <c r="I63" s="12">
         <v>45480</v>
       </c>
@@ -6527,13 +6684,15 @@
       <c r="E64" s="18">
         <v>23274</v>
       </c>
-      <c r="F64" s="22">
+      <c r="F64" s="26">
         <v>60</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H64" s="1"/>
+      <c r="H64" s="1">
+        <v>0</v>
+      </c>
       <c r="I64" s="12">
         <v>85327</v>
       </c>
@@ -6575,9 +6734,13 @@
       <c r="E65" s="18">
         <v>25639</v>
       </c>
-      <c r="F65" s="22"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
+      <c r="F65" s="26"/>
+      <c r="G65" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="H65" s="1">
+        <v>0</v>
+      </c>
       <c r="I65" s="12"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
@@ -6609,13 +6772,15 @@
       <c r="E66" s="18">
         <v>32667</v>
       </c>
-      <c r="F66" s="22">
+      <c r="F66" s="26">
         <v>60</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H66" s="1"/>
+      <c r="H66" s="1">
+        <v>0</v>
+      </c>
       <c r="I66" s="12">
         <v>62450</v>
       </c>
@@ -6657,13 +6822,15 @@
       <c r="E67" s="18">
         <v>28072</v>
       </c>
-      <c r="F67" s="22">
+      <c r="F67" s="26">
         <v>60</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H67" s="1"/>
+      <c r="H67" s="1">
+        <v>0</v>
+      </c>
       <c r="I67" s="12">
         <v>58275</v>
       </c>
@@ -6703,13 +6870,15 @@
       <c r="E68" s="18">
         <v>26521</v>
       </c>
-      <c r="F68" s="22">
+      <c r="F68" s="26">
         <v>120</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H68" s="1"/>
+      <c r="H68" s="1">
+        <v>0</v>
+      </c>
       <c r="I68" s="12">
         <v>26814</v>
       </c>
@@ -6751,9 +6920,13 @@
       <c r="E69" s="18">
         <v>29903</v>
       </c>
-      <c r="F69" s="22"/>
-      <c r="G69" s="1"/>
-      <c r="H69" s="1"/>
+      <c r="F69" s="26"/>
+      <c r="G69" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="H69" s="1">
+        <v>0</v>
+      </c>
       <c r="I69" s="12"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
@@ -6785,13 +6958,15 @@
       <c r="E70" s="18">
         <v>15143</v>
       </c>
-      <c r="F70" s="22">
+      <c r="F70" s="26">
         <v>60</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H70" s="1"/>
+      <c r="H70" s="1">
+        <v>0</v>
+      </c>
       <c r="I70" s="12"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
@@ -6809,7 +6984,7 @@
       </c>
       <c r="R70" s="2"/>
     </row>
-    <row r="71" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="8">
         <v>76</v>
       </c>
@@ -6823,13 +6998,15 @@
       <c r="E71" s="18">
         <v>23050</v>
       </c>
-      <c r="F71" s="22">
+      <c r="F71" s="26">
         <v>60</v>
       </c>
       <c r="G71" s="24" t="s">
         <v>1016</v>
       </c>
-      <c r="H71" s="1"/>
+      <c r="H71" s="1">
+        <v>0</v>
+      </c>
       <c r="I71" s="12">
         <v>87340</v>
       </c>
@@ -6867,13 +7044,15 @@
       <c r="E72" s="18">
         <v>16684</v>
       </c>
-      <c r="F72" s="22">
+      <c r="F72" s="26">
         <v>120</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H72" s="1"/>
+      <c r="H72" s="1">
+        <v>0</v>
+      </c>
       <c r="I72" s="12">
         <v>45480</v>
       </c>
@@ -6913,13 +7092,15 @@
       <c r="E73" s="18">
         <v>28770</v>
       </c>
-      <c r="F73" s="22">
+      <c r="F73" s="26">
         <v>102.26</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H73" s="1"/>
+      <c r="H73" s="1">
+        <v>0</v>
+      </c>
       <c r="I73" s="12">
         <v>34045</v>
       </c>
@@ -6945,7 +7126,7 @@
       </c>
       <c r="R73" s="2"/>
     </row>
-    <row r="74" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="8">
         <v>28</v>
       </c>
@@ -6959,13 +7140,15 @@
       <c r="E74" s="18">
         <v>17778</v>
       </c>
-      <c r="F74" s="22">
+      <c r="F74" s="26">
         <v>60</v>
       </c>
       <c r="G74" s="24" t="s">
         <v>1016</v>
       </c>
-      <c r="H74" s="1"/>
+      <c r="H74" s="1">
+        <v>0</v>
+      </c>
       <c r="I74" s="12"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
@@ -6999,13 +7182,15 @@
       <c r="E75" s="18">
         <v>29016</v>
       </c>
-      <c r="F75" s="22">
+      <c r="F75" s="26">
         <v>60</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H75" s="1"/>
+      <c r="H75" s="1">
+        <v>0</v>
+      </c>
       <c r="I75" s="12">
         <v>50868</v>
       </c>
@@ -7047,11 +7232,15 @@
       <c r="E76" s="18">
         <v>26504</v>
       </c>
-      <c r="F76" s="22">
-        <v>60</v>
-      </c>
-      <c r="G76" s="1"/>
-      <c r="H76" s="1"/>
+      <c r="F76" s="26">
+        <v>60</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="H76" s="1">
+        <v>0</v>
+      </c>
       <c r="I76" s="12">
         <v>79691</v>
       </c>
@@ -7093,13 +7282,15 @@
       <c r="E77" s="18">
         <v>21013</v>
       </c>
-      <c r="F77" s="22">
+      <c r="F77" s="26">
         <v>60</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H77" s="1"/>
+      <c r="H77" s="1">
+        <v>0</v>
+      </c>
       <c r="I77" s="12"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
@@ -7129,13 +7320,15 @@
       <c r="E78" s="18">
         <v>31123</v>
       </c>
-      <c r="F78" s="22">
+      <c r="F78" s="26">
         <v>60</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H78" s="1"/>
+      <c r="H78" s="1">
+        <v>0</v>
+      </c>
       <c r="I78" s="12">
         <v>28016</v>
       </c>
@@ -7177,13 +7370,15 @@
       <c r="E79" s="18">
         <v>17232</v>
       </c>
-      <c r="F79" s="22">
+      <c r="F79" s="26">
         <v>60</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H79" s="1"/>
+      <c r="H79" s="1">
+        <v>0</v>
+      </c>
       <c r="I79" s="12">
         <v>74330</v>
       </c>
@@ -7227,9 +7422,13 @@
       <c r="E80" s="18">
         <v>16638</v>
       </c>
-      <c r="F80" s="22"/>
-      <c r="G80" s="1"/>
-      <c r="H80" s="1"/>
+      <c r="F80" s="26"/>
+      <c r="G80" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="H80" s="1">
+        <v>0</v>
+      </c>
       <c r="I80" s="12">
         <v>64286</v>
       </c>
@@ -7271,13 +7470,15 @@
       <c r="E81" s="18">
         <v>34723</v>
       </c>
-      <c r="F81" s="22">
+      <c r="F81" s="26">
         <v>70</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>1017</v>
       </c>
-      <c r="H81" s="1"/>
+      <c r="H81" s="1">
+        <v>0</v>
+      </c>
       <c r="I81" s="12">
         <v>51168</v>
       </c>
@@ -7319,13 +7520,15 @@
       <c r="E82" s="18">
         <v>19173</v>
       </c>
-      <c r="F82" s="22">
+      <c r="F82" s="26">
         <v>600</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H82" s="1"/>
+      <c r="H82" s="1">
+        <v>0</v>
+      </c>
       <c r="I82" s="12">
         <v>86515</v>
       </c>
@@ -7367,13 +7570,15 @@
       <c r="E83" s="18">
         <v>15350</v>
       </c>
-      <c r="F83" s="22">
+      <c r="F83" s="26">
         <v>60</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H83" s="1"/>
+      <c r="H83" s="1">
+        <v>0</v>
+      </c>
       <c r="I83" s="12">
         <v>18972</v>
       </c>
@@ -7415,11 +7620,15 @@
       <c r="E84" s="18">
         <v>36758</v>
       </c>
-      <c r="F84" s="22">
-        <v>60</v>
-      </c>
-      <c r="G84" s="1"/>
-      <c r="H84" s="1"/>
+      <c r="F84" s="26">
+        <v>60</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="H84" s="1">
+        <v>0</v>
+      </c>
       <c r="I84" s="12">
         <v>30354</v>
       </c>
@@ -7461,13 +7670,15 @@
       <c r="E85" s="18">
         <v>32250</v>
       </c>
-      <c r="F85" s="22">
+      <c r="F85" s="26">
         <v>60</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H85" s="1"/>
+      <c r="H85" s="1">
+        <v>0</v>
+      </c>
       <c r="I85" s="12"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
@@ -7501,13 +7712,15 @@
       <c r="E86" s="18">
         <v>27477</v>
       </c>
-      <c r="F86" s="22">
+      <c r="F86" s="26">
         <v>60</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>1018</v>
       </c>
-      <c r="H86" s="1"/>
+      <c r="H86" s="1">
+        <v>0</v>
+      </c>
       <c r="I86" s="12">
         <v>56401</v>
       </c>
@@ -7549,11 +7762,15 @@
       <c r="E87" s="18">
         <v>23842</v>
       </c>
-      <c r="F87" s="22">
+      <c r="F87" s="26">
         <v>120</v>
       </c>
-      <c r="G87" s="1"/>
-      <c r="H87" s="1"/>
+      <c r="G87" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="H87" s="1">
+        <v>0</v>
+      </c>
       <c r="I87" s="12">
         <v>12163</v>
       </c>
@@ -7595,13 +7812,15 @@
       <c r="E88" s="18">
         <v>23576</v>
       </c>
-      <c r="F88" s="22">
+      <c r="F88" s="26">
         <v>60</v>
       </c>
       <c r="G88" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H88" s="1"/>
+      <c r="H88" s="1">
+        <v>0</v>
+      </c>
       <c r="I88" s="12">
         <v>39347</v>
       </c>
@@ -7641,11 +7860,15 @@
       <c r="E89" s="18">
         <v>27871</v>
       </c>
-      <c r="F89" s="22">
-        <v>60</v>
-      </c>
-      <c r="G89" s="1"/>
-      <c r="H89" s="1"/>
+      <c r="F89" s="26">
+        <v>60</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="H89" s="1">
+        <v>0</v>
+      </c>
       <c r="I89" s="12">
         <v>82679</v>
       </c>
@@ -7683,13 +7906,15 @@
       <c r="E90" s="18">
         <v>26801</v>
       </c>
-      <c r="F90" s="22">
+      <c r="F90" s="26">
         <v>60</v>
       </c>
       <c r="G90" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H90" s="1"/>
+      <c r="H90" s="1">
+        <v>0</v>
+      </c>
       <c r="I90" s="12"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
@@ -7723,13 +7948,15 @@
       <c r="E91" s="18">
         <v>30551</v>
       </c>
-      <c r="F91" s="22">
+      <c r="F91" s="26">
         <v>60</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H91" s="1"/>
+      <c r="H91" s="1">
+        <v>0</v>
+      </c>
       <c r="I91" s="12"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
@@ -7763,13 +7990,15 @@
       <c r="E92" s="18">
         <v>34415</v>
       </c>
-      <c r="F92" s="22">
+      <c r="F92" s="26">
         <v>60</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H92" s="1"/>
+      <c r="H92" s="1">
+        <v>0</v>
+      </c>
       <c r="I92" s="12">
         <v>30114</v>
       </c>
@@ -7809,11 +8038,15 @@
       <c r="E93" s="18">
         <v>25601</v>
       </c>
-      <c r="F93" s="22">
-        <v>60</v>
-      </c>
-      <c r="G93" s="1"/>
-      <c r="H93" s="1"/>
+      <c r="F93" s="26">
+        <v>60</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="H93" s="1">
+        <v>0</v>
+      </c>
       <c r="I93" s="12">
         <v>82879</v>
       </c>
@@ -7853,13 +8086,15 @@
       <c r="E94" s="18">
         <v>13555</v>
       </c>
-      <c r="F94" s="22">
+      <c r="F94" s="26">
         <v>60</v>
       </c>
       <c r="G94" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H94" s="1"/>
+      <c r="H94" s="1">
+        <v>0</v>
+      </c>
       <c r="I94" s="12">
         <v>83481</v>
       </c>
@@ -7899,13 +8134,15 @@
       <c r="E95" s="18">
         <v>14703</v>
       </c>
-      <c r="F95" s="22">
+      <c r="F95" s="26">
         <v>60</v>
       </c>
       <c r="G95" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H95" s="1"/>
+      <c r="H95" s="1">
+        <v>0</v>
+      </c>
       <c r="I95" s="12">
         <v>89124</v>
       </c>
@@ -7945,11 +8182,15 @@
       <c r="E96" s="18">
         <v>14955</v>
       </c>
-      <c r="F96" s="22">
-        <v>60</v>
-      </c>
-      <c r="G96" s="1"/>
-      <c r="H96" s="1"/>
+      <c r="F96" s="26">
+        <v>60</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="H96" s="1">
+        <v>0</v>
+      </c>
       <c r="I96" s="12">
         <v>30933</v>
       </c>
@@ -7989,13 +8230,15 @@
       <c r="E97" s="18">
         <v>31000</v>
       </c>
-      <c r="F97" s="22">
+      <c r="F97" s="26">
         <v>60</v>
       </c>
       <c r="G97" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H97" s="1"/>
+      <c r="H97" s="1">
+        <v>0</v>
+      </c>
       <c r="I97" s="12"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
@@ -8027,13 +8270,15 @@
       <c r="E98" s="18">
         <v>21681</v>
       </c>
-      <c r="F98" s="22">
+      <c r="F98" s="26">
         <v>60</v>
       </c>
       <c r="G98" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H98" s="1"/>
+      <c r="H98" s="1">
+        <v>0</v>
+      </c>
       <c r="I98" s="12">
         <v>33118</v>
       </c>
@@ -8075,13 +8320,15 @@
       <c r="E99" s="18">
         <v>30907</v>
       </c>
-      <c r="F99" s="22">
+      <c r="F99" s="26">
         <v>100</v>
       </c>
       <c r="G99" s="1" t="s">
         <v>1018</v>
       </c>
-      <c r="H99" s="1"/>
+      <c r="H99" s="1">
+        <v>0</v>
+      </c>
       <c r="I99" s="12">
         <v>34259</v>
       </c>
@@ -8123,13 +8370,15 @@
       <c r="E100" s="18">
         <v>22464</v>
       </c>
-      <c r="F100" s="22">
+      <c r="F100" s="26">
         <v>60</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H100" s="1"/>
+      <c r="H100" s="1">
+        <v>0</v>
+      </c>
       <c r="I100" s="12">
         <v>99675</v>
       </c>
@@ -8171,13 +8420,15 @@
       <c r="E101" s="18">
         <v>33004</v>
       </c>
-      <c r="F101" s="22">
+      <c r="F101" s="26">
         <v>60</v>
       </c>
       <c r="G101" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H101" s="1"/>
+      <c r="H101" s="1">
+        <v>0</v>
+      </c>
       <c r="I101" s="12">
         <v>88185</v>
       </c>
@@ -8219,11 +8470,15 @@
       <c r="E102" s="18">
         <v>18846</v>
       </c>
-      <c r="F102" s="22">
+      <c r="F102" s="26">
         <v>100</v>
       </c>
-      <c r="G102" s="1"/>
-      <c r="H102" s="1"/>
+      <c r="G102" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="H102" s="1">
+        <v>0</v>
+      </c>
       <c r="I102" s="12">
         <v>50540</v>
       </c>
@@ -8263,13 +8518,15 @@
       <c r="E103" s="18">
         <v>15646</v>
       </c>
-      <c r="F103" s="22">
+      <c r="F103" s="26">
         <v>60</v>
       </c>
       <c r="G103" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H103" s="1"/>
+      <c r="H103" s="1">
+        <v>0</v>
+      </c>
       <c r="I103" s="12">
         <v>37471</v>
       </c>
@@ -8311,9 +8568,13 @@
       <c r="E104" s="18">
         <v>29404</v>
       </c>
-      <c r="F104" s="22"/>
-      <c r="G104" s="1"/>
-      <c r="H104" s="1"/>
+      <c r="F104" s="26"/>
+      <c r="G104" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="H104" s="1">
+        <v>0</v>
+      </c>
       <c r="I104" s="12"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
@@ -8347,13 +8608,15 @@
       <c r="E105" s="18">
         <v>15034</v>
       </c>
-      <c r="F105" s="22">
+      <c r="F105" s="26">
         <v>60</v>
       </c>
       <c r="G105" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H105" s="1"/>
+      <c r="H105" s="1">
+        <v>0</v>
+      </c>
       <c r="I105" s="12">
         <v>84230</v>
       </c>
@@ -8391,13 +8654,15 @@
       <c r="E106" s="18">
         <v>21321</v>
       </c>
-      <c r="F106" s="22">
+      <c r="F106" s="26">
         <v>120</v>
       </c>
       <c r="G106" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H106" s="1"/>
+      <c r="H106" s="1">
+        <v>0</v>
+      </c>
       <c r="I106" s="12"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
@@ -8429,13 +8694,15 @@
       <c r="E107" s="18">
         <v>17108</v>
       </c>
-      <c r="F107" s="22">
+      <c r="F107" s="26">
         <v>60</v>
       </c>
       <c r="G107" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H107" s="1"/>
+      <c r="H107" s="1">
+        <v>0</v>
+      </c>
       <c r="I107" s="12">
         <v>94527</v>
       </c>
@@ -8477,13 +8744,15 @@
       <c r="E108" s="18">
         <v>18121</v>
       </c>
-      <c r="F108" s="22">
+      <c r="F108" s="26">
         <v>60</v>
       </c>
       <c r="G108" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H108" s="1"/>
+      <c r="H108" s="1">
+        <v>0</v>
+      </c>
       <c r="I108" s="12">
         <v>57991</v>
       </c>
@@ -8523,11 +8792,15 @@
       <c r="E109" s="18">
         <v>29414</v>
       </c>
-      <c r="F109" s="22">
-        <v>60</v>
-      </c>
-      <c r="G109" s="1"/>
-      <c r="H109" s="1"/>
+      <c r="F109" s="26">
+        <v>60</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="H109" s="1">
+        <v>0</v>
+      </c>
       <c r="I109" s="12">
         <v>41411</v>
       </c>
@@ -8567,9 +8840,13 @@
       <c r="E110" s="18">
         <v>23367</v>
       </c>
-      <c r="F110" s="22"/>
-      <c r="G110" s="1"/>
-      <c r="H110" s="1"/>
+      <c r="F110" s="26"/>
+      <c r="G110" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="H110" s="1">
+        <v>0</v>
+      </c>
       <c r="I110" s="12">
         <v>45480</v>
       </c>
@@ -8613,13 +8890,15 @@
       <c r="E111" s="18">
         <v>32703</v>
       </c>
-      <c r="F111" s="22">
+      <c r="F111" s="26">
         <v>60</v>
       </c>
       <c r="G111" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H111" s="1"/>
+      <c r="H111" s="1">
+        <v>0</v>
+      </c>
       <c r="I111" s="12">
         <v>70335</v>
       </c>
@@ -8659,13 +8938,15 @@
       <c r="E112" s="18">
         <v>23581</v>
       </c>
-      <c r="F112" s="22">
+      <c r="F112" s="26">
         <v>60</v>
       </c>
       <c r="G112" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H112" s="1"/>
+      <c r="H112" s="1">
+        <v>0</v>
+      </c>
       <c r="I112" s="12">
         <v>28138</v>
       </c>
@@ -8707,13 +8988,15 @@
       <c r="E113" s="18">
         <v>21475</v>
       </c>
-      <c r="F113" s="22">
+      <c r="F113" s="26">
         <v>60</v>
       </c>
       <c r="G113" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H113" s="1"/>
+      <c r="H113" s="1">
+        <v>0</v>
+      </c>
       <c r="I113" s="12">
         <v>26670</v>
       </c>
@@ -8753,11 +9036,15 @@
       <c r="E114" s="18">
         <v>18803</v>
       </c>
-      <c r="F114" s="22">
+      <c r="F114" s="26">
         <v>120</v>
       </c>
-      <c r="G114" s="1"/>
-      <c r="H114" s="1"/>
+      <c r="G114" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="H114" s="1">
+        <v>0</v>
+      </c>
       <c r="I114" s="12">
         <v>15181</v>
       </c>
@@ -8799,13 +9086,15 @@
       <c r="E115" s="18">
         <v>29761</v>
       </c>
-      <c r="F115" s="22">
+      <c r="F115" s="26">
         <v>60</v>
       </c>
       <c r="G115" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H115" s="1"/>
+      <c r="H115" s="1">
+        <v>0</v>
+      </c>
       <c r="I115" s="12"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
@@ -8839,13 +9128,15 @@
       <c r="E116" s="18">
         <v>30957</v>
       </c>
-      <c r="F116" s="22">
+      <c r="F116" s="26">
         <v>60</v>
       </c>
       <c r="G116" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H116" s="1"/>
+      <c r="H116" s="1">
+        <v>0</v>
+      </c>
       <c r="I116" s="12">
         <v>30748</v>
       </c>
@@ -8885,13 +9176,15 @@
       <c r="E117" s="18" t="s">
         <v>792</v>
       </c>
-      <c r="F117" s="22">
+      <c r="F117" s="26">
         <v>60</v>
       </c>
       <c r="G117" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H117" s="1"/>
+      <c r="H117" s="1">
+        <v>0</v>
+      </c>
       <c r="I117" s="12">
         <v>25380</v>
       </c>
@@ -8937,13 +9230,15 @@
       <c r="E118" s="18">
         <v>23036</v>
       </c>
-      <c r="F118" s="22">
+      <c r="F118" s="26">
         <v>60</v>
       </c>
       <c r="G118" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H118" s="1"/>
+      <c r="H118" s="1">
+        <v>0</v>
+      </c>
       <c r="I118" s="12">
         <v>64732</v>
       </c>
@@ -8985,13 +9280,15 @@
       <c r="E119" s="18">
         <v>17503</v>
       </c>
-      <c r="F119" s="22">
+      <c r="F119" s="26">
         <v>60</v>
       </c>
       <c r="G119" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H119" s="1"/>
+      <c r="H119" s="1">
+        <v>0</v>
+      </c>
       <c r="I119" s="12">
         <v>28073</v>
       </c>
@@ -9035,11 +9332,15 @@
       <c r="E120" s="18">
         <v>26959</v>
       </c>
-      <c r="F120" s="22">
-        <v>60</v>
-      </c>
-      <c r="G120" s="1"/>
-      <c r="H120" s="1"/>
+      <c r="F120" s="26">
+        <v>60</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="H120" s="1">
+        <v>0</v>
+      </c>
       <c r="I120" s="12"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
@@ -9073,13 +9374,15 @@
       <c r="E121" s="18">
         <v>17270</v>
       </c>
-      <c r="F121" s="22">
+      <c r="F121" s="26">
         <v>60</v>
       </c>
       <c r="G121" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H121" s="1"/>
+      <c r="H121" s="1">
+        <v>0</v>
+      </c>
       <c r="I121" s="12">
         <v>29467</v>
       </c>
@@ -9119,13 +9422,15 @@
       <c r="E122" s="18">
         <v>12488</v>
       </c>
-      <c r="F122" s="22">
+      <c r="F122" s="26">
         <v>60</v>
       </c>
       <c r="G122" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H122" s="1"/>
+      <c r="H122" s="1">
+        <v>0</v>
+      </c>
       <c r="I122" s="12">
         <v>62980</v>
       </c>
@@ -9165,11 +9470,15 @@
       <c r="E123" s="18">
         <v>27629</v>
       </c>
-      <c r="F123" s="22">
-        <v>60</v>
-      </c>
-      <c r="G123" s="1"/>
-      <c r="H123" s="1"/>
+      <c r="F123" s="26">
+        <v>60</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="H123" s="1">
+        <v>0</v>
+      </c>
       <c r="I123" s="12">
         <v>23590</v>
       </c>
@@ -9211,11 +9520,15 @@
       <c r="E124" s="18">
         <v>37086</v>
       </c>
-      <c r="F124" s="22">
-        <v>60</v>
-      </c>
-      <c r="G124" s="1"/>
-      <c r="H124" s="1"/>
+      <c r="F124" s="26">
+        <v>60</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="H124" s="1">
+        <v>0</v>
+      </c>
       <c r="I124" s="12">
         <v>36387</v>
       </c>
@@ -9255,13 +9568,15 @@
       <c r="E125" s="18">
         <v>29279</v>
       </c>
-      <c r="F125" s="22">
+      <c r="F125" s="26">
         <v>60</v>
       </c>
       <c r="G125" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H125" s="1"/>
+      <c r="H125" s="1">
+        <v>0</v>
+      </c>
       <c r="I125" s="12">
         <v>53595</v>
       </c>
@@ -9303,9 +9618,13 @@
       <c r="E126" s="18">
         <v>27815</v>
       </c>
-      <c r="F126" s="22"/>
-      <c r="G126" s="1"/>
-      <c r="H126" s="1"/>
+      <c r="F126" s="26"/>
+      <c r="G126" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="H126" s="1">
+        <v>0</v>
+      </c>
       <c r="I126" s="12"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
@@ -9339,13 +9658,15 @@
       <c r="E127" s="18">
         <v>29984</v>
       </c>
-      <c r="F127" s="22">
+      <c r="F127" s="26">
         <v>60</v>
       </c>
       <c r="G127" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H127" s="1"/>
+      <c r="H127" s="1">
+        <v>0</v>
+      </c>
       <c r="I127" s="12">
         <v>77891</v>
       </c>
@@ -9385,13 +9706,15 @@
       <c r="E128" s="18">
         <v>22339</v>
       </c>
-      <c r="F128" s="22">
+      <c r="F128" s="26">
         <v>61.36</v>
       </c>
       <c r="G128" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H128" s="1"/>
+      <c r="H128" s="1">
+        <v>0</v>
+      </c>
       <c r="I128" s="12">
         <v>83481</v>
       </c>
@@ -9431,13 +9754,15 @@
       <c r="E129" s="18">
         <v>35107</v>
       </c>
-      <c r="F129" s="22">
+      <c r="F129" s="26">
         <v>60</v>
       </c>
       <c r="G129" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H129" s="1"/>
+      <c r="H129" s="1">
+        <v>0</v>
+      </c>
       <c r="I129" s="12">
         <v>92511</v>
       </c>
@@ -9479,13 +9804,15 @@
       <c r="E130" s="18">
         <v>18242</v>
       </c>
-      <c r="F130" s="22">
+      <c r="F130" s="26">
         <v>60</v>
       </c>
       <c r="G130" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H130" s="1"/>
+      <c r="H130" s="1">
+        <v>0</v>
+      </c>
       <c r="I130" s="12">
         <v>30933</v>
       </c>
@@ -9525,13 +9852,15 @@
       <c r="E131" s="18">
         <v>33370</v>
       </c>
-      <c r="F131" s="22">
+      <c r="F131" s="26">
         <v>60</v>
       </c>
       <c r="G131" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H131" s="1"/>
+      <c r="H131" s="1">
+        <v>0</v>
+      </c>
       <c r="I131" s="12">
         <v>39084</v>
       </c>
@@ -9573,11 +9902,15 @@
       <c r="E132" s="18">
         <v>20388</v>
       </c>
-      <c r="F132" s="22">
-        <v>60</v>
-      </c>
-      <c r="G132" s="1"/>
-      <c r="H132" s="1"/>
+      <c r="F132" s="26">
+        <v>60</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="H132" s="1">
+        <v>0</v>
+      </c>
       <c r="I132" s="12">
         <v>74904</v>
       </c>
@@ -9619,13 +9952,15 @@
       <c r="E133" s="18">
         <v>29899</v>
       </c>
-      <c r="F133" s="22">
+      <c r="F133" s="26">
         <v>60</v>
       </c>
       <c r="G133" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H133" s="1"/>
+      <c r="H133" s="1">
+        <v>0</v>
+      </c>
       <c r="I133" s="12">
         <v>18972</v>
       </c>
@@ -9667,9 +10002,13 @@
       <c r="E134" s="18">
         <v>16215</v>
       </c>
-      <c r="F134" s="22"/>
-      <c r="G134" s="1"/>
-      <c r="H134" s="1"/>
+      <c r="F134" s="26"/>
+      <c r="G134" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="H134" s="1">
+        <v>0</v>
+      </c>
       <c r="I134" s="12">
         <v>34470</v>
       </c>
@@ -9709,9 +10048,13 @@
       <c r="E135" s="18">
         <v>25742</v>
       </c>
-      <c r="F135" s="22"/>
-      <c r="G135" s="1"/>
-      <c r="H135" s="1"/>
+      <c r="F135" s="26"/>
+      <c r="G135" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="H135" s="1">
+        <v>0</v>
+      </c>
       <c r="I135" s="12">
         <v>44196</v>
       </c>
@@ -9753,13 +10096,15 @@
       <c r="E136" s="18">
         <v>22107</v>
       </c>
-      <c r="F136" s="22">
+      <c r="F136" s="26">
         <v>60</v>
       </c>
       <c r="G136" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H136" s="1"/>
+      <c r="H136" s="1">
+        <v>0</v>
+      </c>
       <c r="I136" s="12">
         <v>73686</v>
       </c>
@@ -9801,13 +10146,15 @@
       <c r="E137" s="18">
         <v>16312</v>
       </c>
-      <c r="F137" s="22">
+      <c r="F137" s="26">
         <v>60</v>
       </c>
       <c r="G137" s="1" t="s">
         <v>1018</v>
       </c>
-      <c r="H137" s="1"/>
+      <c r="H137" s="1">
+        <v>0</v>
+      </c>
       <c r="I137" s="12"/>
       <c r="J137" s="9"/>
       <c r="K137" s="9"/>
@@ -9841,13 +10188,15 @@
       <c r="E138" s="18">
         <v>17730</v>
       </c>
-      <c r="F138" s="22">
+      <c r="F138" s="26">
         <v>60</v>
       </c>
       <c r="G138" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H138" s="1"/>
+      <c r="H138" s="1">
+        <v>0</v>
+      </c>
       <c r="I138" s="12">
         <v>79141</v>
       </c>
@@ -9887,13 +10236,15 @@
       <c r="E139" s="18">
         <v>30309</v>
       </c>
-      <c r="F139" s="22">
+      <c r="F139" s="26">
         <v>60</v>
       </c>
       <c r="G139" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H139" s="1"/>
+      <c r="H139" s="1">
+        <v>0</v>
+      </c>
       <c r="I139" s="12">
         <v>65450</v>
       </c>
@@ -9933,13 +10284,15 @@
       <c r="E140" s="18">
         <v>17294</v>
       </c>
-      <c r="F140" s="22">
+      <c r="F140" s="26">
         <v>60</v>
       </c>
       <c r="G140" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H140" s="1"/>
+      <c r="H140" s="1">
+        <v>0</v>
+      </c>
       <c r="I140" s="12">
         <v>79691</v>
       </c>
@@ -9981,11 +10334,15 @@
       <c r="E141" s="18">
         <v>21126</v>
       </c>
-      <c r="F141" s="22">
-        <v>60</v>
-      </c>
-      <c r="G141" s="1"/>
-      <c r="H141" s="1"/>
+      <c r="F141" s="26">
+        <v>60</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="H141" s="1">
+        <v>0</v>
+      </c>
       <c r="I141" s="12">
         <v>31598</v>
       </c>
@@ -10025,13 +10382,15 @@
       <c r="E142" s="18">
         <v>28084</v>
       </c>
-      <c r="F142" s="22">
+      <c r="F142" s="26">
         <v>60</v>
       </c>
       <c r="G142" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H142" s="1"/>
+      <c r="H142" s="1">
+        <v>0</v>
+      </c>
       <c r="I142" s="12">
         <v>16465</v>
       </c>
@@ -10073,13 +10432,15 @@
       <c r="E143" s="18">
         <v>15782</v>
       </c>
-      <c r="F143" s="22">
+      <c r="F143" s="26">
         <v>60</v>
       </c>
       <c r="G143" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H143" s="1"/>
+      <c r="H143" s="1">
+        <v>0</v>
+      </c>
       <c r="I143" s="12"/>
       <c r="J143" s="9"/>
       <c r="K143" s="9"/>
@@ -10097,7 +10458,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="144" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A144" s="8">
         <v>415</v>
       </c>
@@ -10111,13 +10472,15 @@
       <c r="E144" s="18">
         <v>16916</v>
       </c>
-      <c r="F144" s="22">
+      <c r="F144" s="26">
         <v>60</v>
       </c>
       <c r="G144" s="24" t="s">
         <v>1016</v>
       </c>
-      <c r="H144" s="1"/>
+      <c r="H144" s="1">
+        <v>0</v>
+      </c>
       <c r="I144" s="12">
         <v>79847</v>
       </c>
@@ -10159,13 +10522,15 @@
       <c r="E145" s="18">
         <v>33966</v>
       </c>
-      <c r="F145" s="22">
+      <c r="F145" s="26">
         <v>60</v>
       </c>
       <c r="G145" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H145" s="1"/>
+      <c r="H145" s="1">
+        <v>0</v>
+      </c>
       <c r="I145" s="12">
         <v>70335</v>
       </c>
@@ -10207,13 +10572,15 @@
       <c r="E146" s="18">
         <v>14967</v>
       </c>
-      <c r="F146" s="22">
+      <c r="F146" s="26">
         <v>60</v>
       </c>
       <c r="G146" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H146" s="1"/>
+      <c r="H146" s="1">
+        <v>0</v>
+      </c>
       <c r="I146" s="12">
         <v>84230</v>
       </c>
@@ -10253,13 +10620,15 @@
       <c r="E147" s="18">
         <v>32739</v>
       </c>
-      <c r="F147" s="22">
+      <c r="F147" s="26">
         <v>100</v>
       </c>
       <c r="G147" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H147" s="1"/>
+      <c r="H147" s="1">
+        <v>0</v>
+      </c>
       <c r="I147" s="12">
         <v>18054</v>
       </c>
@@ -10301,13 +10670,15 @@
       <c r="E148" s="18">
         <v>19883</v>
       </c>
-      <c r="F148" s="22">
+      <c r="F148" s="26">
         <v>60</v>
       </c>
       <c r="G148" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H148" s="1"/>
+      <c r="H148" s="1">
+        <v>0</v>
+      </c>
       <c r="I148" s="12">
         <v>91882</v>
       </c>
@@ -10351,13 +10722,15 @@
       <c r="E149" s="18">
         <v>19769</v>
       </c>
-      <c r="F149" s="22">
+      <c r="F149" s="26">
         <v>60</v>
       </c>
       <c r="G149" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H149" s="1"/>
+      <c r="H149" s="1">
+        <v>0</v>
+      </c>
       <c r="I149" s="12"/>
       <c r="J149" s="9"/>
       <c r="K149" s="9"/>
@@ -10391,13 +10764,15 @@
       <c r="E150" s="18">
         <v>20576</v>
       </c>
-      <c r="F150" s="22">
+      <c r="F150" s="26">
         <v>60</v>
       </c>
       <c r="G150" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H150" s="1"/>
+      <c r="H150" s="1">
+        <v>0</v>
+      </c>
       <c r="I150" s="12">
         <v>79519</v>
       </c>
@@ -10439,13 +10814,15 @@
       <c r="E151" s="18">
         <v>21511</v>
       </c>
-      <c r="F151" s="22">
+      <c r="F151" s="26">
         <v>60</v>
       </c>
       <c r="G151" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H151" s="1"/>
+      <c r="H151" s="1">
+        <v>0</v>
+      </c>
       <c r="I151" s="12">
         <v>45549</v>
       </c>
@@ -10487,13 +10864,15 @@
       <c r="E152" s="18">
         <v>23477</v>
       </c>
-      <c r="F152" s="22">
+      <c r="F152" s="26">
         <v>100</v>
       </c>
       <c r="G152" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H152" s="1"/>
+      <c r="H152" s="1">
+        <v>0</v>
+      </c>
       <c r="I152" s="12">
         <v>16409</v>
       </c>
@@ -10533,13 +10912,15 @@
       <c r="E153" s="18">
         <v>30719</v>
       </c>
-      <c r="F153" s="22">
+      <c r="F153" s="26">
         <v>60</v>
       </c>
       <c r="G153" s="1" t="s">
         <v>1018</v>
       </c>
-      <c r="H153" s="1"/>
+      <c r="H153" s="1">
+        <v>0</v>
+      </c>
       <c r="I153" s="12">
         <v>81989</v>
       </c>
@@ -10581,13 +10962,15 @@
       <c r="E154" s="18">
         <v>32239</v>
       </c>
-      <c r="F154" s="22">
+      <c r="F154" s="26">
         <v>60</v>
       </c>
       <c r="G154" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H154" s="1"/>
+      <c r="H154" s="1">
+        <v>0</v>
+      </c>
       <c r="I154" s="12">
         <v>24708</v>
       </c>
@@ -10627,13 +11010,15 @@
       <c r="E155" s="18">
         <v>20418</v>
       </c>
-      <c r="F155" s="22">
+      <c r="F155" s="26">
         <v>100</v>
       </c>
       <c r="G155" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H155" s="1"/>
+      <c r="H155" s="1">
+        <v>0</v>
+      </c>
       <c r="I155" s="12">
         <v>22761</v>
       </c>
@@ -10675,13 +11060,15 @@
       <c r="E156" s="18">
         <v>16528</v>
       </c>
-      <c r="F156" s="22">
+      <c r="F156" s="26">
         <v>60</v>
       </c>
       <c r="G156" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H156" s="1"/>
+      <c r="H156" s="1">
+        <v>0</v>
+      </c>
       <c r="I156" s="12">
         <v>10074</v>
       </c>
@@ -10723,11 +11110,15 @@
       <c r="E157" s="18">
         <v>21244</v>
       </c>
-      <c r="F157" s="22">
-        <v>60</v>
-      </c>
-      <c r="G157" s="1"/>
-      <c r="H157" s="1"/>
+      <c r="F157" s="26">
+        <v>60</v>
+      </c>
+      <c r="G157" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="H157" s="1">
+        <v>0</v>
+      </c>
       <c r="I157" s="12">
         <v>95649</v>
       </c>
@@ -10767,13 +11158,15 @@
       <c r="E158" s="18">
         <v>16942</v>
       </c>
-      <c r="F158" s="22">
+      <c r="F158" s="26">
         <v>60</v>
       </c>
       <c r="G158" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H158" s="1"/>
+      <c r="H158" s="1">
+        <v>0</v>
+      </c>
       <c r="I158" s="12">
         <v>30748</v>
       </c>
@@ -10815,13 +11208,15 @@
       <c r="E159" s="18">
         <v>21568</v>
       </c>
-      <c r="F159" s="22">
+      <c r="F159" s="26">
         <v>60</v>
       </c>
       <c r="G159" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H159" s="1"/>
+      <c r="H159" s="1">
+        <v>0</v>
+      </c>
       <c r="I159" s="12">
         <v>49993</v>
       </c>
@@ -10863,13 +11258,15 @@
       <c r="E160" s="18">
         <v>37263</v>
       </c>
-      <c r="F160" s="22">
+      <c r="F160" s="26">
         <v>60</v>
       </c>
       <c r="G160" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H160" s="1"/>
+      <c r="H160" s="1">
+        <v>0</v>
+      </c>
       <c r="I160" s="12"/>
       <c r="J160" s="9"/>
       <c r="K160" s="9"/>
@@ -10885,7 +11282,7 @@
       </c>
       <c r="R160" s="2"/>
     </row>
-    <row r="161" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A161" s="8">
         <v>56</v>
       </c>
@@ -10899,13 +11296,15 @@
       <c r="E161" s="18">
         <v>20793</v>
       </c>
-      <c r="F161" s="22">
+      <c r="F161" s="26">
         <v>92.04</v>
       </c>
       <c r="G161" s="24" t="s">
         <v>1016</v>
       </c>
-      <c r="H161" s="1"/>
+      <c r="H161" s="1">
+        <v>0</v>
+      </c>
       <c r="I161" s="12"/>
       <c r="J161" s="9"/>
       <c r="K161" s="9"/>
@@ -10937,13 +11336,15 @@
       <c r="E162" s="18">
         <v>11351</v>
       </c>
-      <c r="F162" s="22">
+      <c r="F162" s="26">
         <v>60</v>
       </c>
       <c r="G162" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H162" s="1"/>
+      <c r="H162" s="1">
+        <v>0</v>
+      </c>
       <c r="I162" s="12">
         <v>31568</v>
       </c>
@@ -10983,13 +11384,15 @@
       <c r="E163" s="18">
         <v>22800</v>
       </c>
-      <c r="F163" s="22">
+      <c r="F163" s="26">
         <v>60</v>
       </c>
       <c r="G163" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H163" s="1"/>
+      <c r="H163" s="1">
+        <v>0</v>
+      </c>
       <c r="I163" s="12">
         <v>94294</v>
       </c>
@@ -11031,11 +11434,15 @@
       <c r="E164" s="18">
         <v>17925</v>
       </c>
-      <c r="F164" s="22">
+      <c r="F164" s="26">
         <v>70</v>
       </c>
-      <c r="G164" s="1"/>
-      <c r="H164" s="1"/>
+      <c r="G164" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="H164" s="1">
+        <v>0</v>
+      </c>
       <c r="I164" s="12">
         <v>50640</v>
       </c>
@@ -11059,7 +11466,7 @@
       </c>
       <c r="R164" s="2"/>
     </row>
-    <row r="165" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A165" s="8">
         <v>349</v>
       </c>
@@ -11073,13 +11480,15 @@
       <c r="E165" s="18">
         <v>20065</v>
       </c>
-      <c r="F165" s="22">
+      <c r="F165" s="26">
         <v>60</v>
       </c>
       <c r="G165" s="24" t="s">
         <v>1016</v>
       </c>
-      <c r="H165" s="1"/>
+      <c r="H165" s="1">
+        <v>0</v>
+      </c>
       <c r="I165" s="12"/>
       <c r="J165" s="9"/>
       <c r="K165" s="9"/>
@@ -11113,13 +11522,15 @@
       <c r="E166" s="18">
         <v>28888</v>
       </c>
-      <c r="F166" s="22">
+      <c r="F166" s="26">
         <v>60</v>
       </c>
       <c r="G166" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H166" s="1"/>
+      <c r="H166" s="1">
+        <v>0</v>
+      </c>
       <c r="I166" s="12">
         <v>92240</v>
       </c>
@@ -11159,9 +11570,13 @@
       <c r="E167" s="18">
         <v>28242</v>
       </c>
-      <c r="F167" s="22"/>
-      <c r="G167" s="1"/>
-      <c r="H167" s="1"/>
+      <c r="F167" s="26"/>
+      <c r="G167" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="H167" s="1">
+        <v>0</v>
+      </c>
       <c r="I167" s="12">
         <v>21201</v>
       </c>
@@ -11201,13 +11616,15 @@
       <c r="E168" s="18">
         <v>18706</v>
       </c>
-      <c r="F168" s="22">
+      <c r="F168" s="26">
         <v>120</v>
       </c>
       <c r="G168" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H168" s="1"/>
+      <c r="H168" s="1">
+        <v>0</v>
+      </c>
       <c r="I168" s="12"/>
       <c r="J168" s="9"/>
       <c r="K168" s="9"/>
@@ -11241,11 +11658,15 @@
       <c r="E169" s="18">
         <v>25188</v>
       </c>
-      <c r="F169" s="22">
-        <v>60</v>
-      </c>
-      <c r="G169" s="1"/>
-      <c r="H169" s="1"/>
+      <c r="F169" s="26">
+        <v>60</v>
+      </c>
+      <c r="G169" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="H169" s="1">
+        <v>0</v>
+      </c>
       <c r="I169" s="12">
         <v>83481</v>
       </c>
@@ -11285,13 +11706,15 @@
       <c r="E170" s="18">
         <v>17300</v>
       </c>
-      <c r="F170" s="22">
+      <c r="F170" s="26">
         <v>60</v>
       </c>
       <c r="G170" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H170" s="1"/>
+      <c r="H170" s="1">
+        <v>0</v>
+      </c>
       <c r="I170" s="12">
         <v>26814</v>
       </c>
@@ -11319,7 +11742,7 @@
       </c>
       <c r="R170" s="2"/>
     </row>
-    <row r="171" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A171" s="8">
         <v>101</v>
       </c>
@@ -11333,13 +11756,15 @@
       <c r="E171" s="18">
         <v>17716</v>
       </c>
-      <c r="F171" s="22">
+      <c r="F171" s="26">
         <v>60</v>
       </c>
       <c r="G171" s="24" t="s">
         <v>1016</v>
       </c>
-      <c r="H171" s="1"/>
+      <c r="H171" s="1">
+        <v>0</v>
+      </c>
       <c r="I171" s="12">
         <v>24719</v>
       </c>
@@ -11367,7 +11792,7 @@
       </c>
       <c r="R171" s="2"/>
     </row>
-    <row r="172" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A172" s="8">
         <v>251</v>
       </c>
@@ -11381,13 +11806,15 @@
       <c r="E172" s="18" t="s">
         <v>793</v>
       </c>
-      <c r="F172" s="22">
+      <c r="F172" s="26">
         <v>120</v>
       </c>
       <c r="G172" s="24" t="s">
         <v>1016</v>
       </c>
-      <c r="H172" s="1"/>
+      <c r="H172" s="1">
+        <v>0</v>
+      </c>
       <c r="I172" s="12">
         <v>96436</v>
       </c>
@@ -11429,13 +11856,15 @@
       <c r="E173" s="18">
         <v>34939</v>
       </c>
-      <c r="F173" s="22">
+      <c r="F173" s="26">
         <v>100</v>
       </c>
       <c r="G173" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H173" s="1"/>
+      <c r="H173" s="1">
+        <v>0</v>
+      </c>
       <c r="I173" s="12">
         <v>88933</v>
       </c>
@@ -11475,13 +11904,15 @@
       <c r="E174" s="18">
         <v>27660</v>
       </c>
-      <c r="F174" s="22">
+      <c r="F174" s="26">
         <v>60</v>
       </c>
       <c r="G174" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H174" s="1"/>
+      <c r="H174" s="1">
+        <v>0</v>
+      </c>
       <c r="I174" s="12">
         <v>13149</v>
       </c>
@@ -11523,13 +11954,15 @@
       <c r="E175" s="18">
         <v>28669</v>
       </c>
-      <c r="F175" s="22">
+      <c r="F175" s="26">
         <v>60</v>
       </c>
       <c r="G175" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H175" s="1"/>
+      <c r="H175" s="1">
+        <v>0</v>
+      </c>
       <c r="I175" s="12">
         <v>19432</v>
       </c>
@@ -11569,13 +12002,15 @@
       <c r="E176" s="18">
         <v>22823</v>
       </c>
-      <c r="F176" s="22">
+      <c r="F176" s="26">
         <v>60</v>
       </c>
       <c r="G176" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H176" s="1"/>
+      <c r="H176" s="1">
+        <v>0</v>
+      </c>
       <c r="I176" s="12">
         <v>20803</v>
       </c>
@@ -11617,13 +12052,15 @@
       <c r="E177" s="18">
         <v>11647</v>
       </c>
-      <c r="F177" s="22">
+      <c r="F177" s="26">
         <v>60</v>
       </c>
       <c r="G177" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H177" s="1"/>
+      <c r="H177" s="1">
+        <v>0</v>
+      </c>
       <c r="I177" s="12">
         <v>94789</v>
       </c>
@@ -11663,13 +12100,15 @@
       <c r="E178" s="18">
         <v>29069</v>
       </c>
-      <c r="F178" s="22">
+      <c r="F178" s="26">
         <v>60</v>
       </c>
       <c r="G178" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H178" s="1"/>
+      <c r="H178" s="1">
+        <v>0</v>
+      </c>
       <c r="I178" s="12"/>
       <c r="J178" s="9"/>
       <c r="K178" s="9"/>
@@ -11703,13 +12142,15 @@
       <c r="E179" s="18">
         <v>21018</v>
       </c>
-      <c r="F179" s="22">
+      <c r="F179" s="26">
         <v>60</v>
       </c>
       <c r="G179" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H179" s="1"/>
+      <c r="H179" s="1">
+        <v>0</v>
+      </c>
       <c r="I179" s="12">
         <v>29467</v>
       </c>
@@ -11751,13 +12192,15 @@
       <c r="E180" s="18">
         <v>27414</v>
       </c>
-      <c r="F180" s="22">
+      <c r="F180" s="26">
         <v>60</v>
       </c>
       <c r="G180" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H180" s="1"/>
+      <c r="H180" s="1">
+        <v>0</v>
+      </c>
       <c r="I180" s="12"/>
       <c r="J180" s="9"/>
       <c r="K180" s="9"/>
@@ -11791,13 +12234,15 @@
       <c r="E181" s="18">
         <v>19964</v>
       </c>
-      <c r="F181" s="22">
+      <c r="F181" s="26">
         <v>70</v>
       </c>
       <c r="G181" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H181" s="1"/>
+      <c r="H181" s="1">
+        <v>0</v>
+      </c>
       <c r="I181" s="12">
         <v>14643</v>
       </c>
@@ -11841,13 +12286,15 @@
       <c r="E182" s="18">
         <v>38468</v>
       </c>
-      <c r="F182" s="22">
+      <c r="F182" s="26">
         <v>60</v>
       </c>
       <c r="G182" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H182" s="1"/>
+      <c r="H182" s="1">
+        <v>0</v>
+      </c>
       <c r="I182" s="12">
         <v>94294</v>
       </c>
@@ -11873,7 +12320,7 @@
       </c>
       <c r="R182" s="2"/>
     </row>
-    <row r="183" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A183" s="8">
         <v>401</v>
       </c>
@@ -11887,13 +12334,15 @@
       <c r="E183" s="18">
         <v>22911</v>
       </c>
-      <c r="F183" s="22">
+      <c r="F183" s="26">
         <v>240</v>
       </c>
       <c r="G183" s="24" t="s">
         <v>1016</v>
       </c>
-      <c r="H183" s="1"/>
+      <c r="H183" s="1">
+        <v>0</v>
+      </c>
       <c r="I183" s="12"/>
       <c r="J183" s="9"/>
       <c r="K183" s="9"/>
@@ -11925,13 +12374,15 @@
       <c r="E184" s="18">
         <v>15593</v>
       </c>
-      <c r="F184" s="22">
+      <c r="F184" s="26">
         <v>60</v>
       </c>
       <c r="G184" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H184" s="1"/>
+      <c r="H184" s="1">
+        <v>0</v>
+      </c>
       <c r="I184" s="12">
         <v>79847</v>
       </c>
@@ -11973,11 +12424,13 @@
       <c r="E185" s="18">
         <v>29255</v>
       </c>
-      <c r="F185" s="22"/>
+      <c r="F185" s="26"/>
       <c r="G185" s="1" t="s">
         <v>1018</v>
       </c>
-      <c r="H185" s="1"/>
+      <c r="H185" s="1">
+        <v>0</v>
+      </c>
       <c r="I185" s="12">
         <v>88383</v>
       </c>
@@ -12017,11 +12470,15 @@
       <c r="E186" s="18">
         <v>8291</v>
       </c>
-      <c r="F186" s="22">
+      <c r="F186" s="26">
         <v>84</v>
       </c>
-      <c r="G186" s="1"/>
-      <c r="H186" s="1"/>
+      <c r="G186" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="H186" s="1">
+        <v>0</v>
+      </c>
       <c r="I186" s="12">
         <v>42463</v>
       </c>
@@ -12049,7 +12506,7 @@
       </c>
       <c r="R186" s="2"/>
     </row>
-    <row r="187" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A187" s="8">
         <v>394</v>
       </c>
@@ -12063,13 +12520,15 @@
       <c r="E187" s="18">
         <v>23603</v>
       </c>
-      <c r="F187" s="22">
+      <c r="F187" s="26">
         <v>60</v>
       </c>
       <c r="G187" s="24" t="s">
         <v>1016</v>
       </c>
-      <c r="H187" s="1"/>
+      <c r="H187" s="1">
+        <v>0</v>
+      </c>
       <c r="I187" s="12">
         <v>60566</v>
       </c>
@@ -12111,13 +12570,15 @@
       <c r="E188" s="18">
         <v>17283</v>
       </c>
-      <c r="F188" s="22">
+      <c r="F188" s="26">
         <v>60</v>
       </c>
       <c r="G188" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H188" s="1"/>
+      <c r="H188" s="1">
+        <v>0</v>
+      </c>
       <c r="I188" s="12"/>
       <c r="J188" s="9"/>
       <c r="K188" s="9"/>
@@ -12151,13 +12612,15 @@
       <c r="E189" s="18">
         <v>22546</v>
       </c>
-      <c r="F189" s="22">
+      <c r="F189" s="26">
         <v>60</v>
       </c>
       <c r="G189" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H189" s="1"/>
+      <c r="H189" s="1">
+        <v>0</v>
+      </c>
       <c r="I189" s="12">
         <v>56401</v>
       </c>
@@ -12197,13 +12660,15 @@
       <c r="E190" s="18">
         <v>22070</v>
       </c>
-      <c r="F190" s="22">
+      <c r="F190" s="26">
         <v>60</v>
       </c>
       <c r="G190" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H190" s="1"/>
+      <c r="H190" s="1">
+        <v>0</v>
+      </c>
       <c r="I190" s="12">
         <v>60566</v>
       </c>
@@ -12233,7 +12698,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="191" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A191" s="8">
         <v>416</v>
       </c>
@@ -12247,13 +12712,15 @@
       <c r="E191" s="18">
         <v>38755</v>
       </c>
-      <c r="F191" s="22">
+      <c r="F191" s="26">
         <v>60</v>
       </c>
       <c r="G191" s="24" t="s">
         <v>1016</v>
       </c>
-      <c r="H191" s="1"/>
+      <c r="H191" s="1">
+        <v>0</v>
+      </c>
       <c r="I191" s="12">
         <v>24292</v>
       </c>
@@ -12293,9 +12760,13 @@
       <c r="E192" s="18">
         <v>11893</v>
       </c>
-      <c r="F192" s="22"/>
-      <c r="G192" s="1"/>
-      <c r="H192" s="1"/>
+      <c r="F192" s="26"/>
+      <c r="G192" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="H192" s="1">
+        <v>0</v>
+      </c>
       <c r="I192" s="12"/>
       <c r="J192" s="9"/>
       <c r="K192" s="9"/>
@@ -12327,9 +12798,13 @@
       <c r="E193" s="18">
         <v>29073</v>
       </c>
-      <c r="F193" s="22"/>
-      <c r="G193" s="1"/>
-      <c r="H193" s="1"/>
+      <c r="F193" s="26"/>
+      <c r="G193" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="H193" s="1">
+        <v>0</v>
+      </c>
       <c r="I193" s="12"/>
       <c r="J193" s="9"/>
       <c r="K193" s="9"/>
@@ -12363,13 +12838,15 @@
       <c r="E194" s="18">
         <v>20425</v>
       </c>
-      <c r="F194" s="22">
+      <c r="F194" s="26">
         <v>60</v>
       </c>
       <c r="G194" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H194" s="1"/>
+      <c r="H194" s="1">
+        <v>0</v>
+      </c>
       <c r="I194" s="12">
         <v>21739</v>
       </c>
@@ -12411,13 +12888,15 @@
       <c r="E195" s="18">
         <v>27624</v>
       </c>
-      <c r="F195" s="22">
+      <c r="F195" s="26">
         <v>120</v>
       </c>
       <c r="G195" s="24" t="s">
         <v>1016</v>
       </c>
-      <c r="H195" s="1"/>
+      <c r="H195" s="1">
+        <v>0</v>
+      </c>
       <c r="I195" s="12">
         <v>51162</v>
       </c>
@@ -12461,13 +12940,15 @@
       <c r="E196" s="18">
         <v>24990</v>
       </c>
-      <c r="F196" s="22">
+      <c r="F196" s="26">
         <v>60</v>
       </c>
       <c r="G196" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H196" s="1"/>
+      <c r="H196" s="1">
+        <v>0</v>
+      </c>
       <c r="I196" s="12"/>
       <c r="J196" s="9"/>
       <c r="K196" s="9"/>
@@ -12501,13 +12982,15 @@
       <c r="E197" s="18">
         <v>17338</v>
       </c>
-      <c r="F197" s="22">
+      <c r="F197" s="26">
         <v>60</v>
       </c>
       <c r="G197" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H197" s="1"/>
+      <c r="H197" s="1">
+        <v>0</v>
+      </c>
       <c r="I197" s="12"/>
       <c r="J197" s="9"/>
       <c r="K197" s="9"/>
@@ -12543,13 +13026,15 @@
       <c r="E198" s="18">
         <v>12323</v>
       </c>
-      <c r="F198" s="22">
+      <c r="F198" s="26">
         <v>60</v>
       </c>
       <c r="G198" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H198" s="1"/>
+      <c r="H198" s="1">
+        <v>0</v>
+      </c>
       <c r="I198" s="12">
         <v>98888</v>
       </c>
@@ -12591,13 +13076,15 @@
       <c r="E199" s="18">
         <v>33325</v>
       </c>
-      <c r="F199" s="22">
+      <c r="F199" s="26">
         <v>60</v>
       </c>
       <c r="G199" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H199" s="1"/>
+      <c r="H199" s="1">
+        <v>0</v>
+      </c>
       <c r="I199" s="12">
         <v>85327</v>
       </c>
@@ -12641,9 +13128,13 @@
       <c r="E200" s="18">
         <v>29328</v>
       </c>
-      <c r="F200" s="22"/>
-      <c r="G200" s="1"/>
-      <c r="H200" s="1"/>
+      <c r="F200" s="26"/>
+      <c r="G200" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="H200" s="1">
+        <v>0</v>
+      </c>
       <c r="I200" s="12">
         <v>15674</v>
       </c>
@@ -12683,13 +13174,15 @@
       <c r="E201" s="18" t="s">
         <v>1002</v>
       </c>
-      <c r="F201" s="22">
+      <c r="F201" s="26">
         <v>60</v>
       </c>
       <c r="G201" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H201" s="1"/>
+      <c r="H201" s="1">
+        <v>0</v>
+      </c>
       <c r="I201" s="12"/>
       <c r="J201" s="9"/>
       <c r="K201" s="9"/>
@@ -12723,13 +13216,15 @@
       <c r="E202" s="18">
         <v>25591</v>
       </c>
-      <c r="F202" s="22">
+      <c r="F202" s="26">
         <v>60</v>
       </c>
       <c r="G202" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H202" s="1"/>
+      <c r="H202" s="1">
+        <v>0</v>
+      </c>
       <c r="I202" s="12">
         <v>50607</v>
       </c>
@@ -12773,13 +13268,15 @@
       <c r="E203" s="18">
         <v>15338</v>
       </c>
-      <c r="F203" s="22">
+      <c r="F203" s="26">
         <v>60</v>
       </c>
       <c r="G203" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H203" s="1"/>
+      <c r="H203" s="1">
+        <v>0</v>
+      </c>
       <c r="I203" s="12">
         <v>34413</v>
       </c>
@@ -12821,13 +13318,15 @@
       <c r="E204" s="18">
         <v>30812</v>
       </c>
-      <c r="F204" s="22">
+      <c r="F204" s="26">
         <v>60</v>
       </c>
       <c r="G204" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H204" s="1"/>
+      <c r="H204" s="1">
+        <v>0</v>
+      </c>
       <c r="I204" s="12">
         <v>96151</v>
       </c>
@@ -12869,13 +13368,15 @@
       <c r="E205" s="18">
         <v>15281</v>
       </c>
-      <c r="F205" s="22">
+      <c r="F205" s="26">
         <v>60</v>
       </c>
       <c r="G205" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H205" s="1"/>
+      <c r="H205" s="1">
+        <v>0</v>
+      </c>
       <c r="I205" s="12">
         <v>73417</v>
       </c>
@@ -12917,13 +13418,15 @@
       <c r="E206" s="18">
         <v>23017</v>
       </c>
-      <c r="F206" s="22">
+      <c r="F206" s="26">
         <v>60</v>
       </c>
       <c r="G206" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H206" s="1"/>
+      <c r="H206" s="1">
+        <v>0</v>
+      </c>
       <c r="I206" s="12">
         <v>65523</v>
       </c>
@@ -12963,13 +13466,15 @@
       <c r="E207" s="18">
         <v>16366</v>
       </c>
-      <c r="F207" s="22">
+      <c r="F207" s="26">
         <v>60</v>
       </c>
       <c r="G207" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H207" s="1"/>
+      <c r="H207" s="1">
+        <v>0</v>
+      </c>
       <c r="I207" s="12">
         <v>69926</v>
       </c>
@@ -13011,13 +13516,15 @@
       <c r="E208" s="18">
         <v>31889</v>
       </c>
-      <c r="F208" s="22">
+      <c r="F208" s="26">
         <v>60</v>
       </c>
       <c r="G208" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H208" s="1"/>
+      <c r="H208" s="1">
+        <v>0</v>
+      </c>
       <c r="I208" s="12">
         <v>93686</v>
       </c>
@@ -13059,13 +13566,15 @@
       <c r="E209" s="18">
         <v>23574</v>
       </c>
-      <c r="F209" s="22">
+      <c r="F209" s="26">
         <v>60</v>
       </c>
       <c r="G209" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H209" s="1"/>
+      <c r="H209" s="1">
+        <v>0</v>
+      </c>
       <c r="I209" s="12">
         <v>88740</v>
       </c>
@@ -13107,13 +13616,15 @@
       <c r="E210" s="18">
         <v>20937</v>
       </c>
-      <c r="F210" s="22">
+      <c r="F210" s="26">
         <v>60</v>
       </c>
       <c r="G210" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H210" s="1"/>
+      <c r="H210" s="1">
+        <v>0</v>
+      </c>
       <c r="I210" s="12">
         <v>12070</v>
       </c>
@@ -13155,13 +13666,15 @@
       <c r="E211" s="18">
         <v>29000</v>
       </c>
-      <c r="F211" s="22">
+      <c r="F211" s="26">
         <v>60</v>
       </c>
       <c r="G211" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H211" s="1"/>
+      <c r="H211" s="1">
+        <v>0</v>
+      </c>
       <c r="I211" s="12">
         <v>57266</v>
       </c>
@@ -13203,13 +13716,15 @@
       <c r="E212" s="18">
         <v>20218</v>
       </c>
-      <c r="F212" s="22">
+      <c r="F212" s="26">
         <v>60</v>
       </c>
       <c r="G212" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H212" s="1"/>
+      <c r="H212" s="1">
+        <v>0</v>
+      </c>
       <c r="I212" s="12"/>
       <c r="J212" s="9"/>
       <c r="K212" s="9"/>
@@ -13245,13 +13760,15 @@
       <c r="E213" s="18">
         <v>15670</v>
       </c>
-      <c r="F213" s="22">
+      <c r="F213" s="26">
         <v>60</v>
       </c>
       <c r="G213" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H213" s="1"/>
+      <c r="H213" s="1">
+        <v>0</v>
+      </c>
       <c r="I213" s="12">
         <v>60653</v>
       </c>
@@ -13289,11 +13806,15 @@
       <c r="E214" s="18">
         <v>11666</v>
       </c>
-      <c r="F214" s="22">
-        <v>60</v>
-      </c>
-      <c r="G214" s="1"/>
-      <c r="H214" s="1"/>
+      <c r="F214" s="26">
+        <v>60</v>
+      </c>
+      <c r="G214" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="H214" s="1">
+        <v>0</v>
+      </c>
       <c r="I214" s="12">
         <v>65582</v>
       </c>
@@ -13331,13 +13852,15 @@
       <c r="E215" s="18">
         <v>22181</v>
       </c>
-      <c r="F215" s="22">
+      <c r="F215" s="26">
         <v>60</v>
       </c>
       <c r="G215" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H215" s="1"/>
+      <c r="H215" s="1">
+        <v>0</v>
+      </c>
       <c r="I215" s="12"/>
       <c r="J215" s="9"/>
       <c r="K215" s="9"/>
@@ -13373,13 +13896,15 @@
       <c r="E216" s="18">
         <v>16725</v>
       </c>
-      <c r="F216" s="22">
+      <c r="F216" s="26">
         <v>60</v>
       </c>
       <c r="G216" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H216" s="1"/>
+      <c r="H216" s="1">
+        <v>0</v>
+      </c>
       <c r="I216" s="12">
         <v>11973</v>
       </c>
@@ -13421,11 +13946,15 @@
       <c r="E217" s="18">
         <v>16872</v>
       </c>
-      <c r="F217" s="22">
-        <v>60</v>
-      </c>
-      <c r="G217" s="1"/>
-      <c r="H217" s="1"/>
+      <c r="F217" s="26">
+        <v>60</v>
+      </c>
+      <c r="G217" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="H217" s="1">
+        <v>0</v>
+      </c>
       <c r="I217" s="12">
         <v>47778</v>
       </c>
@@ -13465,13 +13994,15 @@
       <c r="E218" s="18">
         <v>26638</v>
       </c>
-      <c r="F218" s="22">
+      <c r="F218" s="26">
         <v>60</v>
       </c>
       <c r="G218" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H218" s="1"/>
+      <c r="H218" s="1">
+        <v>0</v>
+      </c>
       <c r="I218" s="12">
         <v>70371</v>
       </c>
@@ -13509,13 +14040,15 @@
       <c r="E219" s="18">
         <v>28947</v>
       </c>
-      <c r="F219" s="22">
+      <c r="F219" s="26">
         <v>60</v>
       </c>
       <c r="G219" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="H219" s="1"/>
+      <c r="H219" s="1">
+        <v>0</v>
+      </c>
       <c r="I219" s="12">
         <v>67582</v>
       </c>
